--- a/Running projects/Gul Ahmed Energy Limited/BOQ/Discounted BOQ (15%).xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/BOQ/Discounted BOQ (15%).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD29DD6-6CC1-4ACB-91A5-853BD8803B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED679B-82CA-4357-BAD2-DE42217D3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="258">
   <si>
     <t>Job</t>
   </si>
@@ -1271,6 +1271,15 @@
   </si>
   <si>
     <t>Below Work for outdoor units will be carried out by M/S Gree (Instruction received by ASPL)</t>
+  </si>
+  <si>
+    <t>Pioneer Steel</t>
+  </si>
+  <si>
+    <t>Fakhri borhter</t>
+  </si>
+  <si>
+    <t>Universal traders</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1571,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1867,6 +1876,18 @@
     <xf numFmtId="166" fontId="16" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1909,17 +1930,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2277,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D90355-A162-4E48-8A87-46B23CA1073A}">
-  <dimension ref="A4:I24"/>
+  <dimension ref="A4:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2306,18 +2321,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="81" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
       <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
@@ -2326,12 +2341,12 @@
       <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
@@ -2354,13 +2369,13 @@
       <c r="E10" s="86"/>
     </row>
     <row r="11" spans="1:9" s="81" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:9" s="81" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="88"/>
@@ -2482,14 +2497,52 @@
       <c r="E21" s="93"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="94"/>
+      <c r="E22" s="120"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" s="94"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="120"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="94"/>
+      <c r="D24" s="121">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="120">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="120">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="120">
+        <v>515900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="120">
+        <f>E24-E25-E26</f>
+        <v>1884100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="120"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="91">
+        <v>1884100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2524,114 +2577,114 @@
     <col min="8" max="8" width="12.28515625" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="12"/>
-    <col min="11" max="11" width="15.5703125" style="116" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="116"/>
-    <col min="13" max="13" width="11.85546875" style="116" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="116"/>
+    <col min="11" max="11" width="15.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="102"/>
+    <col min="13" max="13" width="11.85546875" style="102" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="102"/>
     <col min="16" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="44"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
       <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="46"/>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="109"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2644,12 +2697,12 @@
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
+      <c r="I8" s="114"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
     </row>
     <row r="9" spans="1:15" s="55" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -2663,11 +2716,11 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="1:15" s="55" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -2700,19 +2753,19 @@
         <f>H10+F10</f>
         <v>21250</v>
       </c>
-      <c r="K10" s="118">
+      <c r="K10" s="104">
         <v>15000</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="104">
         <f>K10*15%</f>
         <v>2250</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="104">
         <f>K10-L10</f>
         <v>12750</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
     </row>
     <row r="11" spans="1:15" s="55" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -2745,19 +2798,19 @@
         <f t="shared" ref="I11:I17" si="2">H11+F11</f>
         <v>17000</v>
       </c>
-      <c r="K11" s="118">
+      <c r="K11" s="104">
         <v>10000</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="104">
         <f t="shared" ref="L11:L74" si="3">K11*15%</f>
         <v>1500</v>
       </c>
-      <c r="M11" s="118">
+      <c r="M11" s="104">
         <f t="shared" ref="M11:M74" si="4">K11-L11</f>
         <v>8500</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
     </row>
     <row r="12" spans="1:15" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -2790,19 +2843,19 @@
         <f t="shared" si="2"/>
         <v>233750</v>
       </c>
-      <c r="K12" s="118">
+      <c r="K12" s="104">
         <v>275000</v>
       </c>
-      <c r="L12" s="118">
+      <c r="L12" s="104">
         <f t="shared" si="3"/>
         <v>41250</v>
       </c>
-      <c r="M12" s="118">
+      <c r="M12" s="104">
         <f t="shared" si="4"/>
         <v>233750</v>
       </c>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
     </row>
     <row r="13" spans="1:15" s="55" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -2835,19 +2888,19 @@
         <f t="shared" si="2"/>
         <v>76500</v>
       </c>
-      <c r="K13" s="118">
+      <c r="K13" s="104">
         <v>90000</v>
       </c>
-      <c r="L13" s="118">
+      <c r="L13" s="104">
         <f t="shared" si="3"/>
         <v>13500</v>
       </c>
-      <c r="M13" s="118">
+      <c r="M13" s="104">
         <f t="shared" si="4"/>
         <v>76500</v>
       </c>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
     </row>
     <row r="14" spans="1:15" s="55" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -2880,19 +2933,19 @@
         <f t="shared" si="2"/>
         <v>51000</v>
       </c>
-      <c r="K14" s="118">
+      <c r="K14" s="104">
         <v>40000</v>
       </c>
-      <c r="L14" s="118">
+      <c r="L14" s="104">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="M14" s="118">
+      <c r="M14" s="104">
         <f t="shared" si="4"/>
         <v>34000</v>
       </c>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
     </row>
     <row r="15" spans="1:15" s="55" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -2925,19 +2978,19 @@
         <f t="shared" si="2"/>
         <v>51000</v>
       </c>
-      <c r="K15" s="118">
+      <c r="K15" s="104">
         <v>60000</v>
       </c>
-      <c r="L15" s="118">
+      <c r="L15" s="104">
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-      <c r="M15" s="118">
+      <c r="M15" s="104">
         <f t="shared" si="4"/>
         <v>51000</v>
       </c>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
     </row>
     <row r="16" spans="1:15" s="55" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -2970,19 +3023,19 @@
         <f t="shared" si="2"/>
         <v>76500</v>
       </c>
-      <c r="K16" s="118">
+      <c r="K16" s="104">
         <v>90000</v>
       </c>
-      <c r="L16" s="118">
+      <c r="L16" s="104">
         <f t="shared" si="3"/>
         <v>13500</v>
       </c>
-      <c r="M16" s="118">
+      <c r="M16" s="104">
         <f t="shared" si="4"/>
         <v>76500</v>
       </c>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
     </row>
     <row r="17" spans="1:15" s="55" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -3015,19 +3068,19 @@
         <f t="shared" si="2"/>
         <v>42500</v>
       </c>
-      <c r="K17" s="118">
+      <c r="K17" s="104">
         <v>50000</v>
       </c>
-      <c r="L17" s="118">
+      <c r="L17" s="104">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M17" s="118">
+      <c r="M17" s="104">
         <f t="shared" si="4"/>
         <v>42500</v>
       </c>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
     </row>
     <row r="18" spans="1:15" s="55" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -3041,17 +3094,17 @@
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118">
+      <c r="K18" s="104"/>
+      <c r="L18" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
     </row>
     <row r="19" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -3063,17 +3116,17 @@
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118">
+      <c r="K19" s="104"/>
+      <c r="L19" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M19" s="118">
+      <c r="M19" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
     </row>
     <row r="20" spans="1:15" s="55" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -3087,17 +3140,17 @@
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118">
+      <c r="K20" s="104"/>
+      <c r="L20" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M20" s="118">
+      <c r="M20" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
     </row>
     <row r="21" spans="1:15" s="55" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -3111,17 +3164,17 @@
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
       <c r="I21" s="40"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118">
+      <c r="K21" s="104"/>
+      <c r="L21" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M21" s="118">
+      <c r="M21" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
     </row>
     <row r="22" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -3137,17 +3190,17 @@
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118">
+      <c r="K22" s="104"/>
+      <c r="L22" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M22" s="118">
+      <c r="M22" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
     </row>
     <row r="23" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3180,19 +3233,19 @@
         <f t="shared" ref="I23:I25" si="7">H23+F23</f>
         <v>85000</v>
       </c>
-      <c r="K23" s="118">
+      <c r="K23" s="104">
         <v>100000</v>
       </c>
-      <c r="L23" s="118">
+      <c r="L23" s="104">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="M23" s="118">
+      <c r="M23" s="104">
         <f t="shared" si="4"/>
         <v>85000</v>
       </c>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
     </row>
     <row r="24" spans="1:15" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3225,19 +3278,19 @@
         <f t="shared" si="7"/>
         <v>1530000</v>
       </c>
-      <c r="K24" s="118">
+      <c r="K24" s="104">
         <v>1800000</v>
       </c>
-      <c r="L24" s="118">
+      <c r="L24" s="104">
         <f t="shared" si="3"/>
         <v>270000</v>
       </c>
-      <c r="M24" s="118">
+      <c r="M24" s="104">
         <f t="shared" si="4"/>
         <v>1530000</v>
       </c>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
     </row>
     <row r="25" spans="1:15" s="55" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3270,19 +3323,19 @@
         <f t="shared" si="7"/>
         <v>148750</v>
       </c>
-      <c r="K25" s="118">
+      <c r="K25" s="104">
         <v>10000</v>
       </c>
-      <c r="L25" s="118">
+      <c r="L25" s="104">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="M25" s="118">
+      <c r="M25" s="104">
         <f t="shared" si="4"/>
         <v>8500</v>
       </c>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
     </row>
     <row r="26" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -3294,17 +3347,17 @@
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118">
+      <c r="K26" s="104"/>
+      <c r="L26" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M26" s="118">
+      <c r="M26" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
     </row>
     <row r="27" spans="1:15" s="55" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -3318,17 +3371,17 @@
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118">
+      <c r="K27" s="104"/>
+      <c r="L27" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27" s="118">
+      <c r="M27" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
     </row>
     <row r="28" spans="1:15" s="55" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -3342,17 +3395,17 @@
       <c r="G28" s="53"/>
       <c r="H28" s="53"/>
       <c r="I28" s="40"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118">
+      <c r="K28" s="104"/>
+      <c r="L28" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M28" s="118">
+      <c r="M28" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
     </row>
     <row r="29" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -3366,17 +3419,17 @@
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118">
+      <c r="K29" s="104"/>
+      <c r="L29" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M29" s="118">
+      <c r="M29" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
     </row>
     <row r="30" spans="1:15" s="59" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -3409,19 +3462,19 @@
         <f t="shared" ref="I30" si="10">H30+F30</f>
         <v>544000</v>
       </c>
-      <c r="K30" s="118">
+      <c r="K30" s="104">
         <v>90000</v>
       </c>
-      <c r="L30" s="118">
+      <c r="L30" s="104">
         <f t="shared" si="3"/>
         <v>13500</v>
       </c>
-      <c r="M30" s="118">
+      <c r="M30" s="104">
         <f t="shared" si="4"/>
         <v>76500</v>
       </c>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
     </row>
     <row r="31" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3435,17 +3488,17 @@
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118">
+      <c r="K31" s="104"/>
+      <c r="L31" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M31" s="118">
+      <c r="M31" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
     </row>
     <row r="32" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
@@ -3478,19 +3531,19 @@
         <f t="shared" ref="I32" si="13">H32+F32</f>
         <v>127500</v>
       </c>
-      <c r="K32" s="118">
+      <c r="K32" s="104">
         <v>25000</v>
       </c>
-      <c r="L32" s="118">
+      <c r="L32" s="104">
         <f t="shared" si="3"/>
         <v>3750</v>
       </c>
-      <c r="M32" s="118">
+      <c r="M32" s="104">
         <f t="shared" si="4"/>
         <v>21250</v>
       </c>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
     </row>
     <row r="33" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
@@ -3504,17 +3557,17 @@
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118">
+      <c r="K33" s="104"/>
+      <c r="L33" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="118">
+      <c r="M33" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
     </row>
     <row r="34" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
@@ -3547,19 +3600,19 @@
         <f t="shared" ref="I34" si="16">H34+F34</f>
         <v>174250</v>
       </c>
-      <c r="K34" s="118">
+      <c r="K34" s="104">
         <v>25000</v>
       </c>
-      <c r="L34" s="118">
+      <c r="L34" s="104">
         <f t="shared" si="3"/>
         <v>3750</v>
       </c>
-      <c r="M34" s="118">
+      <c r="M34" s="104">
         <f t="shared" si="4"/>
         <v>21250</v>
       </c>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
     </row>
     <row r="35" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
@@ -3573,17 +3626,17 @@
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118">
+      <c r="K35" s="104"/>
+      <c r="L35" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M35" s="118">
+      <c r="M35" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
     </row>
     <row r="36" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
@@ -3616,19 +3669,19 @@
         <f t="shared" ref="I36" si="19">H36+F36</f>
         <v>85000</v>
       </c>
-      <c r="K36" s="118">
+      <c r="K36" s="104">
         <v>20000</v>
       </c>
-      <c r="L36" s="118">
+      <c r="L36" s="104">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="M36" s="118">
+      <c r="M36" s="104">
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
     </row>
     <row r="37" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
@@ -3642,17 +3695,17 @@
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118">
+      <c r="K37" s="104"/>
+      <c r="L37" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M37" s="118">
+      <c r="M37" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
     </row>
     <row r="38" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
@@ -3685,19 +3738,19 @@
         <f t="shared" ref="I38" si="22">H38+F38</f>
         <v>42500</v>
       </c>
-      <c r="K38" s="118">
+      <c r="K38" s="104">
         <v>15000</v>
       </c>
-      <c r="L38" s="118">
+      <c r="L38" s="104">
         <f t="shared" si="3"/>
         <v>2250</v>
       </c>
-      <c r="M38" s="118">
+      <c r="M38" s="104">
         <f t="shared" si="4"/>
         <v>12750</v>
       </c>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
     </row>
     <row r="39" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
@@ -3711,17 +3764,17 @@
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118">
+      <c r="K39" s="104"/>
+      <c r="L39" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M39" s="118">
+      <c r="M39" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N39" s="118"/>
-      <c r="O39" s="118"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
     </row>
     <row r="40" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
@@ -3754,19 +3807,19 @@
         <f t="shared" ref="I40" si="25">H40+F40</f>
         <v>42500</v>
       </c>
-      <c r="K40" s="118">
+      <c r="K40" s="104">
         <v>10000</v>
       </c>
-      <c r="L40" s="118">
+      <c r="L40" s="104">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="M40" s="118">
+      <c r="M40" s="104">
         <f t="shared" si="4"/>
         <v>8500</v>
       </c>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
     </row>
     <row r="41" spans="1:15" s="59" customFormat="1" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
@@ -3780,17 +3833,17 @@
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118">
+      <c r="K41" s="104"/>
+      <c r="L41" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M41" s="118">
+      <c r="M41" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
     </row>
     <row r="42" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
@@ -3804,17 +3857,17 @@
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118">
+      <c r="K42" s="104"/>
+      <c r="L42" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M42" s="118">
+      <c r="M42" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
     </row>
     <row r="43" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
@@ -3828,17 +3881,17 @@
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118">
+      <c r="K43" s="104"/>
+      <c r="L43" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M43" s="118">
+      <c r="M43" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
     </row>
     <row r="44" spans="1:15" s="59" customFormat="1" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
@@ -3871,19 +3924,19 @@
         <f t="shared" ref="I44" si="28">H44+F44</f>
         <v>447525</v>
       </c>
-      <c r="K44" s="118">
+      <c r="K44" s="104">
         <v>50</v>
       </c>
-      <c r="L44" s="118">
+      <c r="L44" s="104">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="M44" s="118">
+      <c r="M44" s="104">
         <f t="shared" si="4"/>
         <v>42.5</v>
       </c>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
     </row>
     <row r="45" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="60"/>
@@ -3897,17 +3950,17 @@
       <c r="G45" s="65"/>
       <c r="H45" s="65"/>
       <c r="I45" s="65"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118">
+      <c r="K45" s="104"/>
+      <c r="L45" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M45" s="118">
+      <c r="M45" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
     </row>
     <row r="46" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
@@ -3923,17 +3976,17 @@
       <c r="G46" s="65"/>
       <c r="H46" s="65"/>
       <c r="I46" s="65"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118">
+      <c r="K46" s="104"/>
+      <c r="L46" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M46" s="118">
+      <c r="M46" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
     </row>
     <row r="47" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="66" t="s">
@@ -3966,19 +4019,19 @@
         <f t="shared" ref="I47:I55" si="31">H47+F47</f>
         <v>19380</v>
       </c>
-      <c r="K47" s="118">
+      <c r="K47" s="104">
         <v>60</v>
       </c>
-      <c r="L47" s="118">
+      <c r="L47" s="104">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M47" s="118">
+      <c r="M47" s="104">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
     </row>
     <row r="48" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="66" t="s">
@@ -4011,19 +4064,19 @@
         <f t="shared" si="31"/>
         <v>53762.5</v>
       </c>
-      <c r="K48" s="118">
+      <c r="K48" s="104">
         <v>60</v>
       </c>
-      <c r="L48" s="118">
+      <c r="L48" s="104">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M48" s="118">
+      <c r="M48" s="104">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
     </row>
     <row r="49" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="66" t="s">
@@ -4056,19 +4109,19 @@
         <f t="shared" si="31"/>
         <v>51255</v>
       </c>
-      <c r="K49" s="118">
+      <c r="K49" s="104">
         <v>60</v>
       </c>
-      <c r="L49" s="118">
+      <c r="L49" s="104">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M49" s="118">
+      <c r="M49" s="104">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
     </row>
     <row r="50" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="66" t="s">
@@ -4101,19 +4154,19 @@
         <f t="shared" si="31"/>
         <v>32512.5</v>
       </c>
-      <c r="K50" s="118">
+      <c r="K50" s="104">
         <v>80</v>
       </c>
-      <c r="L50" s="118">
+      <c r="L50" s="104">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M50" s="104">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
     </row>
     <row r="51" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="66" t="s">
@@ -4146,19 +4199,19 @@
         <f t="shared" si="31"/>
         <v>50575</v>
       </c>
-      <c r="K51" s="118">
+      <c r="K51" s="104">
         <v>80</v>
       </c>
-      <c r="L51" s="118">
+      <c r="L51" s="104">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M51" s="118">
+      <c r="M51" s="104">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="104"/>
     </row>
     <row r="52" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="66" t="s">
@@ -4191,19 +4244,19 @@
         <f t="shared" si="31"/>
         <v>8500</v>
       </c>
-      <c r="K52" s="118">
+      <c r="K52" s="104">
         <v>100</v>
       </c>
-      <c r="L52" s="118">
+      <c r="L52" s="104">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M52" s="118">
+      <c r="M52" s="104">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="104"/>
     </row>
     <row r="53" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="66" t="s">
@@ -4236,19 +4289,19 @@
         <f t="shared" si="31"/>
         <v>28560</v>
       </c>
-      <c r="K53" s="118">
+      <c r="K53" s="104">
         <v>100</v>
       </c>
-      <c r="L53" s="118">
+      <c r="L53" s="104">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M53" s="118">
+      <c r="M53" s="104">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
     </row>
     <row r="54" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="66" t="s">
@@ -4281,19 +4334,19 @@
         <f t="shared" si="31"/>
         <v>8160</v>
       </c>
-      <c r="K54" s="118">
+      <c r="K54" s="104">
         <v>100</v>
       </c>
-      <c r="L54" s="118">
+      <c r="L54" s="104">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M54" s="118">
+      <c r="M54" s="104">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
     </row>
     <row r="55" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="66" t="s">
@@ -4326,19 +4379,19 @@
         <f t="shared" si="31"/>
         <v>25840</v>
       </c>
-      <c r="K55" s="118">
+      <c r="K55" s="104">
         <v>100</v>
       </c>
-      <c r="L55" s="118">
+      <c r="L55" s="104">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M55" s="118">
+      <c r="M55" s="104">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="N55" s="118"/>
-      <c r="O55" s="118"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
     </row>
     <row r="56" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="60"/>
@@ -4352,17 +4405,17 @@
       <c r="G56" s="65"/>
       <c r="H56" s="65"/>
       <c r="I56" s="65"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118">
+      <c r="K56" s="104"/>
+      <c r="L56" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M56" s="118">
+      <c r="M56" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
     </row>
     <row r="57" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
@@ -4378,17 +4431,17 @@
       <c r="G57" s="65"/>
       <c r="H57" s="65"/>
       <c r="I57" s="65"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118">
+      <c r="K57" s="104"/>
+      <c r="L57" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M57" s="118">
+      <c r="M57" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
     </row>
     <row r="58" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
@@ -4421,19 +4474,19 @@
         <f t="shared" ref="I58:I62" si="34">H58+F58</f>
         <v>6630</v>
       </c>
-      <c r="K58" s="118">
+      <c r="K58" s="104">
         <v>80</v>
       </c>
-      <c r="L58" s="118">
+      <c r="L58" s="104">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M58" s="118">
+      <c r="M58" s="104">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
     </row>
     <row r="59" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
@@ -4466,19 +4519,19 @@
         <f t="shared" si="34"/>
         <v>13090</v>
       </c>
-      <c r="K59" s="118">
+      <c r="K59" s="104">
         <v>80</v>
       </c>
-      <c r="L59" s="118">
+      <c r="L59" s="104">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M59" s="118">
+      <c r="M59" s="104">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
     </row>
     <row r="60" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
@@ -4511,19 +4564,19 @@
         <f t="shared" si="34"/>
         <v>28262.5</v>
       </c>
-      <c r="K60" s="118">
+      <c r="K60" s="104">
         <v>100</v>
       </c>
-      <c r="L60" s="118">
+      <c r="L60" s="104">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M60" s="118">
+      <c r="M60" s="104">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
     </row>
     <row r="61" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
@@ -4556,19 +4609,19 @@
         <f t="shared" si="34"/>
         <v>11900</v>
       </c>
-      <c r="K61" s="118">
+      <c r="K61" s="104">
         <v>100</v>
       </c>
-      <c r="L61" s="118">
+      <c r="L61" s="104">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M61" s="118">
+      <c r="M61" s="104">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
+      <c r="N61" s="104"/>
+      <c r="O61" s="104"/>
     </row>
     <row r="62" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
@@ -4601,19 +4654,19 @@
         <f t="shared" si="34"/>
         <v>29112.5</v>
       </c>
-      <c r="K62" s="118">
+      <c r="K62" s="104">
         <v>150</v>
       </c>
-      <c r="L62" s="118">
+      <c r="L62" s="104">
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
-      <c r="M62" s="118">
+      <c r="M62" s="104">
         <f t="shared" si="4"/>
         <v>127.5</v>
       </c>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="104"/>
     </row>
     <row r="63" spans="1:15" s="59" customFormat="1" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A63" s="60"/>
@@ -4627,17 +4680,17 @@
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118">
+      <c r="K63" s="104"/>
+      <c r="L63" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M63" s="118">
+      <c r="M63" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N63" s="118"/>
-      <c r="O63" s="118"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
     </row>
     <row r="64" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="60"/>
@@ -4651,17 +4704,17 @@
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
       <c r="I64" s="69"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118">
+      <c r="K64" s="104"/>
+      <c r="L64" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M64" s="118">
+      <c r="M64" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
     </row>
     <row r="65" spans="1:15" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A65" s="60"/>
@@ -4675,17 +4728,17 @@
       <c r="G65" s="70"/>
       <c r="H65" s="70"/>
       <c r="I65" s="70"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="118">
+      <c r="K65" s="105"/>
+      <c r="L65" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M65" s="118">
+      <c r="M65" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N65" s="119"/>
-      <c r="O65" s="119"/>
+      <c r="N65" s="105"/>
+      <c r="O65" s="105"/>
     </row>
     <row r="66" spans="1:15" s="59" customFormat="1" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
@@ -4718,19 +4771,19 @@
         <f t="shared" ref="I66" si="37">H66+F66</f>
         <v>212500</v>
       </c>
-      <c r="K66" s="118">
+      <c r="K66" s="104">
         <v>250000</v>
       </c>
-      <c r="L66" s="118">
+      <c r="L66" s="104">
         <f t="shared" si="3"/>
         <v>37500</v>
       </c>
-      <c r="M66" s="118">
+      <c r="M66" s="104">
         <f t="shared" si="4"/>
         <v>212500</v>
       </c>
-      <c r="N66" s="118"/>
-      <c r="O66" s="118"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
     </row>
     <row r="67" spans="1:15" s="55" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
@@ -4744,17 +4797,17 @@
       <c r="G67" s="53"/>
       <c r="H67" s="53"/>
       <c r="I67" s="40"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118">
+      <c r="K67" s="104"/>
+      <c r="L67" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M67" s="118">
+      <c r="M67" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N67" s="118"/>
-      <c r="O67" s="118"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
     </row>
     <row r="68" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="60"/>
@@ -4768,17 +4821,17 @@
       <c r="G68" s="62"/>
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="118">
+      <c r="K68" s="104"/>
+      <c r="L68" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M68" s="118">
+      <c r="M68" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N68" s="118"/>
-      <c r="O68" s="118"/>
+      <c r="N68" s="104"/>
+      <c r="O68" s="104"/>
     </row>
     <row r="69" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="60"/>
@@ -4792,17 +4845,17 @@
       <c r="G69" s="65"/>
       <c r="H69" s="65"/>
       <c r="I69" s="65"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118">
+      <c r="K69" s="104"/>
+      <c r="L69" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M69" s="118">
+      <c r="M69" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N69" s="118"/>
-      <c r="O69" s="118"/>
+      <c r="N69" s="104"/>
+      <c r="O69" s="104"/>
     </row>
     <row r="70" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
@@ -4818,17 +4871,17 @@
       <c r="G70" s="65"/>
       <c r="H70" s="65"/>
       <c r="I70" s="65"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118">
+      <c r="K70" s="104"/>
+      <c r="L70" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M70" s="118">
+      <c r="M70" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="104"/>
     </row>
     <row r="71" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="66" t="s">
@@ -4861,19 +4914,19 @@
         <f t="shared" ref="I71:I79" si="40">H71+F71</f>
         <v>68680</v>
       </c>
-      <c r="K71" s="118">
+      <c r="K71" s="104">
         <v>200</v>
       </c>
-      <c r="L71" s="118">
+      <c r="L71" s="104">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M71" s="118">
+      <c r="M71" s="104">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="N71" s="118"/>
-      <c r="O71" s="118"/>
+      <c r="N71" s="104"/>
+      <c r="O71" s="104"/>
     </row>
     <row r="72" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="66" t="s">
@@ -4906,19 +4959,19 @@
         <f t="shared" si="40"/>
         <v>122187.5</v>
       </c>
-      <c r="K72" s="118">
+      <c r="K72" s="104">
         <v>200</v>
       </c>
-      <c r="L72" s="118">
+      <c r="L72" s="104">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M72" s="118">
+      <c r="M72" s="104">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="N72" s="118"/>
-      <c r="O72" s="118"/>
+      <c r="N72" s="104"/>
+      <c r="O72" s="104"/>
     </row>
     <row r="73" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="66" t="s">
@@ -4951,19 +5004,19 @@
         <f t="shared" si="40"/>
         <v>220320</v>
       </c>
-      <c r="K73" s="118">
+      <c r="K73" s="104">
         <v>200</v>
       </c>
-      <c r="L73" s="118">
+      <c r="L73" s="104">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M73" s="118">
+      <c r="M73" s="104">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="N73" s="118"/>
-      <c r="O73" s="118"/>
+      <c r="N73" s="104"/>
+      <c r="O73" s="104"/>
     </row>
     <row r="74" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="66" t="s">
@@ -4996,19 +5049,19 @@
         <f t="shared" si="40"/>
         <v>145732.5</v>
       </c>
-      <c r="K74" s="118">
+      <c r="K74" s="104">
         <v>225</v>
       </c>
-      <c r="L74" s="118">
+      <c r="L74" s="104">
         <f t="shared" si="3"/>
         <v>33.75</v>
       </c>
-      <c r="M74" s="118">
+      <c r="M74" s="104">
         <f t="shared" si="4"/>
         <v>191.25</v>
       </c>
-      <c r="N74" s="118"/>
-      <c r="O74" s="118"/>
+      <c r="N74" s="104"/>
+      <c r="O74" s="104"/>
     </row>
     <row r="75" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="66" t="s">
@@ -5041,19 +5094,19 @@
         <f t="shared" si="40"/>
         <v>257635</v>
       </c>
-      <c r="K75" s="118">
+      <c r="K75" s="104">
         <v>250</v>
       </c>
-      <c r="L75" s="118">
+      <c r="L75" s="104">
         <f t="shared" ref="L75:L138" si="41">K75*15%</f>
         <v>37.5</v>
       </c>
-      <c r="M75" s="118">
+      <c r="M75" s="104">
         <f t="shared" ref="M75:M138" si="42">K75-L75</f>
         <v>212.5</v>
       </c>
-      <c r="N75" s="118"/>
-      <c r="O75" s="118"/>
+      <c r="N75" s="104"/>
+      <c r="O75" s="104"/>
     </row>
     <row r="76" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="66" t="s">
@@ -5086,19 +5139,19 @@
         <f t="shared" si="40"/>
         <v>45594</v>
       </c>
-      <c r="K76" s="118">
+      <c r="K76" s="104">
         <v>250</v>
       </c>
-      <c r="L76" s="118">
+      <c r="L76" s="104">
         <f t="shared" si="41"/>
         <v>37.5</v>
       </c>
-      <c r="M76" s="118">
+      <c r="M76" s="104">
         <f t="shared" si="42"/>
         <v>212.5</v>
       </c>
-      <c r="N76" s="118"/>
-      <c r="O76" s="118"/>
+      <c r="N76" s="104"/>
+      <c r="O76" s="104"/>
     </row>
     <row r="77" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="66" t="s">
@@ -5131,19 +5184,19 @@
         <f t="shared" si="40"/>
         <v>180132</v>
       </c>
-      <c r="K77" s="118">
+      <c r="K77" s="104">
         <v>300</v>
       </c>
-      <c r="L77" s="118">
+      <c r="L77" s="104">
         <f t="shared" si="41"/>
         <v>45</v>
       </c>
-      <c r="M77" s="118">
+      <c r="M77" s="104">
         <f t="shared" si="42"/>
         <v>255</v>
       </c>
-      <c r="N77" s="118"/>
-      <c r="O77" s="118"/>
+      <c r="N77" s="104"/>
+      <c r="O77" s="104"/>
     </row>
     <row r="78" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="66" t="s">
@@ -5176,19 +5229,19 @@
         <f t="shared" si="40"/>
         <v>64387.5</v>
       </c>
-      <c r="K78" s="118">
+      <c r="K78" s="104">
         <v>300</v>
       </c>
-      <c r="L78" s="118">
+      <c r="L78" s="104">
         <f t="shared" si="41"/>
         <v>45</v>
       </c>
-      <c r="M78" s="118">
+      <c r="M78" s="104">
         <f t="shared" si="42"/>
         <v>255</v>
       </c>
-      <c r="N78" s="118"/>
-      <c r="O78" s="118"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="104"/>
     </row>
     <row r="79" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="66" t="s">
@@ -5221,19 +5274,19 @@
         <f t="shared" si="40"/>
         <v>210120</v>
       </c>
-      <c r="K79" s="118">
+      <c r="K79" s="104">
         <v>300</v>
       </c>
-      <c r="L79" s="118">
+      <c r="L79" s="104">
         <f t="shared" si="41"/>
         <v>45</v>
       </c>
-      <c r="M79" s="118">
+      <c r="M79" s="104">
         <f t="shared" si="42"/>
         <v>255</v>
       </c>
-      <c r="N79" s="118"/>
-      <c r="O79" s="118"/>
+      <c r="N79" s="104"/>
+      <c r="O79" s="104"/>
     </row>
     <row r="80" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
@@ -5247,17 +5300,17 @@
       <c r="G80" s="73"/>
       <c r="H80" s="73"/>
       <c r="I80" s="65"/>
-      <c r="K80" s="118"/>
-      <c r="L80" s="118">
+      <c r="K80" s="104"/>
+      <c r="L80" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M80" s="118">
+      <c r="M80" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N80" s="118"/>
-      <c r="O80" s="118"/>
+      <c r="N80" s="104"/>
+      <c r="O80" s="104"/>
     </row>
     <row r="81" spans="1:15" s="55" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
@@ -5273,17 +5326,17 @@
       <c r="G81" s="73"/>
       <c r="H81" s="73"/>
       <c r="I81" s="65"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118">
+      <c r="K81" s="104"/>
+      <c r="L81" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M81" s="118">
+      <c r="M81" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
+      <c r="N81" s="104"/>
+      <c r="O81" s="104"/>
     </row>
     <row r="82" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -5316,19 +5369,19 @@
         <f t="shared" ref="I82:I86" si="45">H82+F82</f>
         <v>8925</v>
       </c>
-      <c r="K82" s="118">
+      <c r="K82" s="104">
         <v>100</v>
       </c>
-      <c r="L82" s="118">
+      <c r="L82" s="104">
         <f t="shared" si="41"/>
         <v>15</v>
       </c>
-      <c r="M82" s="118">
+      <c r="M82" s="104">
         <f t="shared" si="42"/>
         <v>85</v>
       </c>
-      <c r="N82" s="118"/>
-      <c r="O82" s="118"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="104"/>
     </row>
     <row r="83" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
@@ -5361,19 +5414,19 @@
         <f t="shared" si="45"/>
         <v>19868.75</v>
       </c>
-      <c r="K83" s="118">
+      <c r="K83" s="104">
         <v>100</v>
       </c>
-      <c r="L83" s="118">
+      <c r="L83" s="104">
         <f t="shared" si="41"/>
         <v>15</v>
       </c>
-      <c r="M83" s="118">
+      <c r="M83" s="104">
         <f t="shared" si="42"/>
         <v>85</v>
       </c>
-      <c r="N83" s="118"/>
-      <c r="O83" s="118"/>
+      <c r="N83" s="104"/>
+      <c r="O83" s="104"/>
     </row>
     <row r="84" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
@@ -5406,19 +5459,19 @@
         <f t="shared" si="45"/>
         <v>39567.5</v>
       </c>
-      <c r="K84" s="118">
+      <c r="K84" s="104">
         <v>100</v>
       </c>
-      <c r="L84" s="118">
+      <c r="L84" s="104">
         <f t="shared" si="41"/>
         <v>15</v>
       </c>
-      <c r="M84" s="118">
+      <c r="M84" s="104">
         <f t="shared" si="42"/>
         <v>85</v>
       </c>
-      <c r="N84" s="118"/>
-      <c r="O84" s="118"/>
+      <c r="N84" s="104"/>
+      <c r="O84" s="104"/>
     </row>
     <row r="85" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -5451,19 +5504,19 @@
         <f t="shared" si="45"/>
         <v>17701.25</v>
       </c>
-      <c r="K85" s="118">
+      <c r="K85" s="104">
         <v>125</v>
       </c>
-      <c r="L85" s="118">
+      <c r="L85" s="104">
         <f t="shared" si="41"/>
         <v>18.75</v>
       </c>
-      <c r="M85" s="118">
+      <c r="M85" s="104">
         <f t="shared" si="42"/>
         <v>106.25</v>
       </c>
-      <c r="N85" s="118"/>
-      <c r="O85" s="118"/>
+      <c r="N85" s="104"/>
+      <c r="O85" s="104"/>
     </row>
     <row r="86" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
@@ -5496,19 +5549,19 @@
         <f t="shared" si="45"/>
         <v>32512.5</v>
       </c>
-      <c r="K86" s="118">
+      <c r="K86" s="104">
         <v>150</v>
       </c>
-      <c r="L86" s="118">
+      <c r="L86" s="104">
         <f t="shared" si="41"/>
         <v>22.5</v>
       </c>
-      <c r="M86" s="118">
+      <c r="M86" s="104">
         <f t="shared" si="42"/>
         <v>127.5</v>
       </c>
-      <c r="N86" s="118"/>
-      <c r="O86" s="118"/>
+      <c r="N86" s="104"/>
+      <c r="O86" s="104"/>
     </row>
     <row r="87" spans="1:15" s="55" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -5522,17 +5575,17 @@
       <c r="G87" s="53"/>
       <c r="H87" s="53"/>
       <c r="I87" s="40"/>
-      <c r="K87" s="118"/>
-      <c r="L87" s="118">
+      <c r="K87" s="104"/>
+      <c r="L87" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M87" s="118">
+      <c r="M87" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N87" s="118"/>
-      <c r="O87" s="118"/>
+      <c r="N87" s="104"/>
+      <c r="O87" s="104"/>
     </row>
     <row r="88" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="60"/>
@@ -5546,17 +5599,17 @@
       <c r="G88" s="69"/>
       <c r="H88" s="69"/>
       <c r="I88" s="69"/>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118">
+      <c r="K88" s="104"/>
+      <c r="L88" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M88" s="118">
+      <c r="M88" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N88" s="118"/>
-      <c r="O88" s="118"/>
+      <c r="N88" s="104"/>
+      <c r="O88" s="104"/>
     </row>
     <row r="89" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="60"/>
@@ -5570,17 +5623,17 @@
       <c r="G89" s="40"/>
       <c r="H89" s="40"/>
       <c r="I89" s="40"/>
-      <c r="K89" s="118"/>
-      <c r="L89" s="118">
+      <c r="K89" s="104"/>
+      <c r="L89" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M89" s="118">
+      <c r="M89" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N89" s="118"/>
-      <c r="O89" s="118"/>
+      <c r="N89" s="104"/>
+      <c r="O89" s="104"/>
     </row>
     <row r="90" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A90" s="29">
@@ -5596,17 +5649,17 @@
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
       <c r="I90" s="40"/>
-      <c r="K90" s="118"/>
-      <c r="L90" s="118">
+      <c r="K90" s="104"/>
+      <c r="L90" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M90" s="118">
+      <c r="M90" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N90" s="118"/>
-      <c r="O90" s="118"/>
+      <c r="N90" s="104"/>
+      <c r="O90" s="104"/>
     </row>
     <row r="91" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="66" t="s">
@@ -5639,19 +5692,19 @@
         <f t="shared" ref="I91" si="48">H91+F91</f>
         <v>946050</v>
       </c>
-      <c r="K91" s="118">
+      <c r="K91" s="104">
         <v>80</v>
       </c>
-      <c r="L91" s="118">
+      <c r="L91" s="104">
         <f t="shared" si="41"/>
         <v>12</v>
       </c>
-      <c r="M91" s="118">
+      <c r="M91" s="104">
         <f t="shared" si="42"/>
         <v>68</v>
       </c>
-      <c r="N91" s="118"/>
-      <c r="O91" s="118"/>
+      <c r="N91" s="104"/>
+      <c r="O91" s="104"/>
     </row>
     <row r="92" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="60"/>
@@ -5665,17 +5718,17 @@
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
       <c r="I92" s="40"/>
-      <c r="K92" s="118"/>
-      <c r="L92" s="118">
+      <c r="K92" s="104"/>
+      <c r="L92" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M92" s="118">
+      <c r="M92" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N92" s="118"/>
-      <c r="O92" s="118"/>
+      <c r="N92" s="104"/>
+      <c r="O92" s="104"/>
     </row>
     <row r="93" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
@@ -5708,19 +5761,19 @@
         <f t="shared" ref="I93" si="51">H93+F93</f>
         <v>77350</v>
       </c>
-      <c r="K93" s="118">
+      <c r="K93" s="104">
         <v>1000</v>
       </c>
-      <c r="L93" s="118">
+      <c r="L93" s="104">
         <f t="shared" si="41"/>
         <v>150</v>
       </c>
-      <c r="M93" s="118">
+      <c r="M93" s="104">
         <f t="shared" si="42"/>
         <v>850</v>
       </c>
-      <c r="N93" s="118"/>
-      <c r="O93" s="118"/>
+      <c r="N93" s="104"/>
+      <c r="O93" s="104"/>
     </row>
     <row r="94" spans="1:15" s="59" customFormat="1" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
@@ -5734,17 +5787,17 @@
       <c r="G94" s="40"/>
       <c r="H94" s="40"/>
       <c r="I94" s="40"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118">
+      <c r="K94" s="104"/>
+      <c r="L94" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M94" s="118">
+      <c r="M94" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N94" s="118"/>
-      <c r="O94" s="118"/>
+      <c r="N94" s="104"/>
+      <c r="O94" s="104"/>
     </row>
     <row r="95" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="60"/>
@@ -5758,17 +5811,17 @@
       <c r="G95" s="69"/>
       <c r="H95" s="69"/>
       <c r="I95" s="69"/>
-      <c r="K95" s="118"/>
-      <c r="L95" s="118">
+      <c r="K95" s="104"/>
+      <c r="L95" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M95" s="118">
+      <c r="M95" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N95" s="118"/>
-      <c r="O95" s="118"/>
+      <c r="N95" s="104"/>
+      <c r="O95" s="104"/>
     </row>
     <row r="96" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="60"/>
@@ -5782,17 +5835,17 @@
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
-      <c r="K96" s="118"/>
-      <c r="L96" s="118">
+      <c r="K96" s="104"/>
+      <c r="L96" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M96" s="118">
+      <c r="M96" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N96" s="118"/>
-      <c r="O96" s="118"/>
+      <c r="N96" s="104"/>
+      <c r="O96" s="104"/>
     </row>
     <row r="97" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
@@ -5808,17 +5861,17 @@
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
       <c r="I97" s="40"/>
-      <c r="K97" s="118"/>
-      <c r="L97" s="118">
+      <c r="K97" s="104"/>
+      <c r="L97" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M97" s="118">
+      <c r="M97" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N97" s="118"/>
-      <c r="O97" s="118"/>
+      <c r="N97" s="104"/>
+      <c r="O97" s="104"/>
     </row>
     <row r="98" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="66"/>
@@ -5832,17 +5885,17 @@
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
       <c r="I98" s="40"/>
-      <c r="K98" s="118"/>
-      <c r="L98" s="118">
+      <c r="K98" s="104"/>
+      <c r="L98" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M98" s="118">
+      <c r="M98" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N98" s="118"/>
-      <c r="O98" s="118"/>
+      <c r="N98" s="104"/>
+      <c r="O98" s="104"/>
     </row>
     <row r="99" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="66" t="s">
@@ -5875,19 +5928,19 @@
         <f t="shared" ref="I99:I101" si="54">H99+F99</f>
         <v>19550</v>
       </c>
-      <c r="K99" s="118">
+      <c r="K99" s="104">
         <v>750</v>
       </c>
-      <c r="L99" s="118">
+      <c r="L99" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M99" s="118">
+      <c r="M99" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N99" s="118"/>
-      <c r="O99" s="118"/>
+      <c r="N99" s="104"/>
+      <c r="O99" s="104"/>
     </row>
     <row r="100" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="66" t="s">
@@ -5920,19 +5973,19 @@
         <f t="shared" si="54"/>
         <v>4887.5</v>
       </c>
-      <c r="K100" s="118">
+      <c r="K100" s="104">
         <v>750</v>
       </c>
-      <c r="L100" s="118">
+      <c r="L100" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M100" s="118">
+      <c r="M100" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N100" s="118"/>
-      <c r="O100" s="118"/>
+      <c r="N100" s="104"/>
+      <c r="O100" s="104"/>
     </row>
     <row r="101" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="66" t="s">
@@ -5965,19 +6018,19 @@
         <f t="shared" si="54"/>
         <v>4037.5</v>
       </c>
-      <c r="K101" s="118">
+      <c r="K101" s="104">
         <v>750</v>
       </c>
-      <c r="L101" s="118">
+      <c r="L101" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M101" s="118">
+      <c r="M101" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N101" s="118"/>
-      <c r="O101" s="118"/>
+      <c r="N101" s="104"/>
+      <c r="O101" s="104"/>
     </row>
     <row r="102" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="66"/>
@@ -5991,17 +6044,17 @@
       <c r="G102" s="40"/>
       <c r="H102" s="40"/>
       <c r="I102" s="40"/>
-      <c r="K102" s="118"/>
-      <c r="L102" s="118">
+      <c r="K102" s="104"/>
+      <c r="L102" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M102" s="118">
+      <c r="M102" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N102" s="118"/>
-      <c r="O102" s="118"/>
+      <c r="N102" s="104"/>
+      <c r="O102" s="104"/>
     </row>
     <row r="103" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="66" t="s">
@@ -6034,19 +6087,19 @@
         <f t="shared" ref="I103:I105" si="57">H103+F103</f>
         <v>19550</v>
       </c>
-      <c r="K103" s="118">
+      <c r="K103" s="104">
         <v>750</v>
       </c>
-      <c r="L103" s="118">
+      <c r="L103" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M103" s="118">
+      <c r="M103" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N103" s="118"/>
-      <c r="O103" s="118"/>
+      <c r="N103" s="104"/>
+      <c r="O103" s="104"/>
     </row>
     <row r="104" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="66" t="s">
@@ -6079,19 +6132,19 @@
         <f t="shared" si="57"/>
         <v>4887.5</v>
       </c>
-      <c r="K104" s="118">
+      <c r="K104" s="104">
         <v>750</v>
       </c>
-      <c r="L104" s="118">
+      <c r="L104" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M104" s="118">
+      <c r="M104" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N104" s="118"/>
-      <c r="O104" s="118"/>
+      <c r="N104" s="104"/>
+      <c r="O104" s="104"/>
     </row>
     <row r="105" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="66" t="s">
@@ -6124,19 +6177,19 @@
         <f t="shared" si="57"/>
         <v>4887.5</v>
       </c>
-      <c r="K105" s="118">
+      <c r="K105" s="104">
         <v>750</v>
       </c>
-      <c r="L105" s="118">
+      <c r="L105" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M105" s="118">
+      <c r="M105" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N105" s="118"/>
-      <c r="O105" s="118"/>
+      <c r="N105" s="104"/>
+      <c r="O105" s="104"/>
     </row>
     <row r="106" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="60"/>
@@ -6150,17 +6203,17 @@
       <c r="G106" s="40"/>
       <c r="H106" s="40"/>
       <c r="I106" s="40"/>
-      <c r="K106" s="118"/>
-      <c r="L106" s="118">
+      <c r="K106" s="104"/>
+      <c r="L106" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M106" s="118">
+      <c r="M106" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N106" s="118"/>
-      <c r="O106" s="118"/>
+      <c r="N106" s="104"/>
+      <c r="O106" s="104"/>
     </row>
     <row r="107" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
@@ -6193,19 +6246,19 @@
         <f t="shared" ref="I107" si="60">H107+F107</f>
         <v>80750</v>
       </c>
-      <c r="K107" s="118">
+      <c r="K107" s="104">
         <v>15000</v>
       </c>
-      <c r="L107" s="118">
+      <c r="L107" s="104">
         <f t="shared" si="41"/>
         <v>2250</v>
       </c>
-      <c r="M107" s="118">
+      <c r="M107" s="104">
         <f t="shared" si="42"/>
         <v>12750</v>
       </c>
-      <c r="N107" s="118"/>
-      <c r="O107" s="118"/>
+      <c r="N107" s="104"/>
+      <c r="O107" s="104"/>
     </row>
     <row r="108" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="60"/>
@@ -6219,17 +6272,17 @@
       <c r="G108" s="40"/>
       <c r="H108" s="40"/>
       <c r="I108" s="40"/>
-      <c r="K108" s="118"/>
-      <c r="L108" s="118">
+      <c r="K108" s="104"/>
+      <c r="L108" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M108" s="118">
+      <c r="M108" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N108" s="118"/>
-      <c r="O108" s="118"/>
+      <c r="N108" s="104"/>
+      <c r="O108" s="104"/>
     </row>
     <row r="109" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
@@ -6245,17 +6298,17 @@
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
       <c r="I109" s="40"/>
-      <c r="K109" s="118"/>
-      <c r="L109" s="118">
+      <c r="K109" s="104"/>
+      <c r="L109" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M109" s="118">
+      <c r="M109" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N109" s="118"/>
-      <c r="O109" s="118"/>
+      <c r="N109" s="104"/>
+      <c r="O109" s="104"/>
     </row>
     <row r="110" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="66" t="s">
@@ -6288,19 +6341,19 @@
         <f t="shared" ref="I110:I111" si="63">H110+F110</f>
         <v>35062.5</v>
       </c>
-      <c r="K110" s="118">
+      <c r="K110" s="104">
         <v>100</v>
       </c>
-      <c r="L110" s="118">
+      <c r="L110" s="104">
         <f t="shared" si="41"/>
         <v>15</v>
       </c>
-      <c r="M110" s="118">
+      <c r="M110" s="104">
         <f t="shared" si="42"/>
         <v>85</v>
       </c>
-      <c r="N110" s="118"/>
-      <c r="O110" s="118"/>
+      <c r="N110" s="104"/>
+      <c r="O110" s="104"/>
     </row>
     <row r="111" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="66" t="s">
@@ -6333,19 +6386,19 @@
         <f t="shared" si="63"/>
         <v>105400</v>
       </c>
-      <c r="K111" s="118">
+      <c r="K111" s="104">
         <v>300</v>
       </c>
-      <c r="L111" s="118">
+      <c r="L111" s="104">
         <f t="shared" si="41"/>
         <v>45</v>
       </c>
-      <c r="M111" s="118">
+      <c r="M111" s="104">
         <f t="shared" si="42"/>
         <v>255</v>
       </c>
-      <c r="N111" s="118"/>
-      <c r="O111" s="118"/>
+      <c r="N111" s="104"/>
+      <c r="O111" s="104"/>
     </row>
     <row r="112" spans="1:15" s="55" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
@@ -6359,17 +6412,17 @@
       <c r="G112" s="53"/>
       <c r="H112" s="53"/>
       <c r="I112" s="40"/>
-      <c r="K112" s="118"/>
-      <c r="L112" s="118">
+      <c r="K112" s="104"/>
+      <c r="L112" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M112" s="118">
+      <c r="M112" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N112" s="118"/>
-      <c r="O112" s="118"/>
+      <c r="N112" s="104"/>
+      <c r="O112" s="104"/>
     </row>
     <row r="113" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="60"/>
@@ -6383,17 +6436,17 @@
       <c r="G113" s="69"/>
       <c r="H113" s="69"/>
       <c r="I113" s="69"/>
-      <c r="K113" s="118"/>
-      <c r="L113" s="118">
+      <c r="K113" s="104"/>
+      <c r="L113" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M113" s="118">
+      <c r="M113" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N113" s="118"/>
-      <c r="O113" s="118"/>
+      <c r="N113" s="104"/>
+      <c r="O113" s="104"/>
     </row>
     <row r="114" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="60"/>
@@ -6407,17 +6460,17 @@
       <c r="G114" s="40"/>
       <c r="H114" s="40"/>
       <c r="I114" s="40"/>
-      <c r="K114" s="118"/>
-      <c r="L114" s="118">
+      <c r="K114" s="104"/>
+      <c r="L114" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M114" s="118">
+      <c r="M114" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N114" s="118"/>
-      <c r="O114" s="118"/>
+      <c r="N114" s="104"/>
+      <c r="O114" s="104"/>
     </row>
     <row r="115" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A115" s="66">
@@ -6433,17 +6486,17 @@
       <c r="G115" s="40"/>
       <c r="H115" s="40"/>
       <c r="I115" s="40"/>
-      <c r="K115" s="118"/>
-      <c r="L115" s="118">
+      <c r="K115" s="104"/>
+      <c r="L115" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M115" s="118">
+      <c r="M115" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N115" s="118"/>
-      <c r="O115" s="118"/>
+      <c r="N115" s="104"/>
+      <c r="O115" s="104"/>
     </row>
     <row r="116" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="76"/>
@@ -6457,17 +6510,17 @@
       <c r="G116" s="40"/>
       <c r="H116" s="40"/>
       <c r="I116" s="40"/>
-      <c r="K116" s="118"/>
-      <c r="L116" s="118">
+      <c r="K116" s="104"/>
+      <c r="L116" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M116" s="118">
+      <c r="M116" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N116" s="118"/>
-      <c r="O116" s="118"/>
+      <c r="N116" s="104"/>
+      <c r="O116" s="104"/>
     </row>
     <row r="117" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="66" t="s">
@@ -6500,19 +6553,19 @@
         <f t="shared" ref="I117:I120" si="66">H117+F117</f>
         <v>225250</v>
       </c>
-      <c r="K117" s="118">
+      <c r="K117" s="104">
         <v>10000</v>
       </c>
-      <c r="L117" s="118">
+      <c r="L117" s="104">
         <f t="shared" si="41"/>
         <v>1500</v>
       </c>
-      <c r="M117" s="118">
+      <c r="M117" s="104">
         <f t="shared" si="42"/>
         <v>8500</v>
       </c>
-      <c r="N117" s="118"/>
-      <c r="O117" s="118"/>
+      <c r="N117" s="104"/>
+      <c r="O117" s="104"/>
     </row>
     <row r="118" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="66" t="s">
@@ -6545,19 +6598,19 @@
         <f t="shared" si="66"/>
         <v>174250</v>
       </c>
-      <c r="K118" s="118">
+      <c r="K118" s="104">
         <v>6000</v>
       </c>
-      <c r="L118" s="118">
+      <c r="L118" s="104">
         <f t="shared" si="41"/>
         <v>900</v>
       </c>
-      <c r="M118" s="118">
+      <c r="M118" s="104">
         <f t="shared" si="42"/>
         <v>5100</v>
       </c>
-      <c r="N118" s="118"/>
-      <c r="O118" s="118"/>
+      <c r="N118" s="104"/>
+      <c r="O118" s="104"/>
     </row>
     <row r="119" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="66" t="s">
@@ -6590,19 +6643,19 @@
         <f t="shared" si="66"/>
         <v>172550</v>
       </c>
-      <c r="K119" s="118">
+      <c r="K119" s="104">
         <v>6000</v>
       </c>
-      <c r="L119" s="118">
+      <c r="L119" s="104">
         <f t="shared" si="41"/>
         <v>900</v>
       </c>
-      <c r="M119" s="118">
+      <c r="M119" s="104">
         <f t="shared" si="42"/>
         <v>5100</v>
       </c>
-      <c r="N119" s="118"/>
-      <c r="O119" s="118"/>
+      <c r="N119" s="104"/>
+      <c r="O119" s="104"/>
     </row>
     <row r="120" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="66" t="s">
@@ -6635,19 +6688,19 @@
         <f t="shared" si="66"/>
         <v>164900</v>
       </c>
-      <c r="K120" s="118">
+      <c r="K120" s="104">
         <v>5000</v>
       </c>
-      <c r="L120" s="118">
+      <c r="L120" s="104">
         <f t="shared" si="41"/>
         <v>750</v>
       </c>
-      <c r="M120" s="118">
+      <c r="M120" s="104">
         <f t="shared" si="42"/>
         <v>4250</v>
       </c>
-      <c r="N120" s="118"/>
-      <c r="O120" s="118"/>
+      <c r="N120" s="104"/>
+      <c r="O120" s="104"/>
     </row>
     <row r="121" spans="1:15" s="55" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
@@ -6661,17 +6714,17 @@
       <c r="G121" s="53"/>
       <c r="H121" s="53"/>
       <c r="I121" s="40"/>
-      <c r="K121" s="118"/>
-      <c r="L121" s="118">
+      <c r="K121" s="104"/>
+      <c r="L121" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M121" s="118">
+      <c r="M121" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N121" s="118"/>
-      <c r="O121" s="118"/>
+      <c r="N121" s="104"/>
+      <c r="O121" s="104"/>
     </row>
     <row r="122" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="76"/>
@@ -6685,17 +6738,17 @@
       <c r="G122" s="69"/>
       <c r="H122" s="69"/>
       <c r="I122" s="69"/>
-      <c r="K122" s="118"/>
-      <c r="L122" s="118">
+      <c r="K122" s="104"/>
+      <c r="L122" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M122" s="118">
+      <c r="M122" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N122" s="118"/>
-      <c r="O122" s="118"/>
+      <c r="N122" s="104"/>
+      <c r="O122" s="104"/>
     </row>
     <row r="123" spans="1:15" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" s="76"/>
@@ -6709,17 +6762,17 @@
       <c r="G123" s="70"/>
       <c r="H123" s="70"/>
       <c r="I123" s="70"/>
-      <c r="K123" s="119"/>
-      <c r="L123" s="118">
+      <c r="K123" s="105"/>
+      <c r="L123" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M123" s="118">
+      <c r="M123" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N123" s="119"/>
-      <c r="O123" s="119"/>
+      <c r="N123" s="105"/>
+      <c r="O123" s="105"/>
     </row>
     <row r="124" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A124" s="66">
@@ -6735,17 +6788,17 @@
       <c r="G124" s="40"/>
       <c r="H124" s="40"/>
       <c r="I124" s="40"/>
-      <c r="K124" s="118"/>
-      <c r="L124" s="118">
+      <c r="K124" s="104"/>
+      <c r="L124" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M124" s="118">
+      <c r="M124" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N124" s="118"/>
-      <c r="O124" s="118"/>
+      <c r="N124" s="104"/>
+      <c r="O124" s="104"/>
     </row>
     <row r="125" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="76"/>
@@ -6759,17 +6812,17 @@
       <c r="G125" s="40"/>
       <c r="H125" s="40"/>
       <c r="I125" s="40"/>
-      <c r="K125" s="118"/>
-      <c r="L125" s="118">
+      <c r="K125" s="104"/>
+      <c r="L125" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M125" s="118">
+      <c r="M125" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N125" s="118"/>
-      <c r="O125" s="118"/>
+      <c r="N125" s="104"/>
+      <c r="O125" s="104"/>
     </row>
     <row r="126" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="66" t="s">
@@ -6802,19 +6855,19 @@
         <f t="shared" ref="I126:I127" si="69">H126+F126</f>
         <v>89250</v>
       </c>
-      <c r="K126" s="118">
+      <c r="K126" s="104">
         <v>500</v>
       </c>
-      <c r="L126" s="118">
+      <c r="L126" s="104">
         <f t="shared" si="41"/>
         <v>75</v>
       </c>
-      <c r="M126" s="118">
+      <c r="M126" s="104">
         <f t="shared" si="42"/>
         <v>425</v>
       </c>
-      <c r="N126" s="118"/>
-      <c r="O126" s="118"/>
+      <c r="N126" s="104"/>
+      <c r="O126" s="104"/>
     </row>
     <row r="127" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="66" t="s">
@@ -6847,19 +6900,19 @@
         <f t="shared" si="69"/>
         <v>8075</v>
       </c>
-      <c r="K127" s="118">
+      <c r="K127" s="104">
         <v>750</v>
       </c>
-      <c r="L127" s="118">
+      <c r="L127" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M127" s="118">
+      <c r="M127" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N127" s="118"/>
-      <c r="O127" s="118"/>
+      <c r="N127" s="104"/>
+      <c r="O127" s="104"/>
     </row>
     <row r="128" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="76"/>
@@ -6873,17 +6926,17 @@
       <c r="G128" s="40"/>
       <c r="H128" s="40"/>
       <c r="I128" s="40"/>
-      <c r="K128" s="118"/>
-      <c r="L128" s="118">
+      <c r="K128" s="104"/>
+      <c r="L128" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M128" s="118">
+      <c r="M128" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N128" s="118"/>
-      <c r="O128" s="118"/>
+      <c r="N128" s="104"/>
+      <c r="O128" s="104"/>
     </row>
     <row r="129" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="66" t="s">
@@ -6916,19 +6969,19 @@
         <f t="shared" ref="I129:I130" si="72">H129+F129</f>
         <v>44625</v>
       </c>
-      <c r="K129" s="118">
+      <c r="K129" s="104">
         <v>500</v>
       </c>
-      <c r="L129" s="118">
+      <c r="L129" s="104">
         <f t="shared" si="41"/>
         <v>75</v>
       </c>
-      <c r="M129" s="118">
+      <c r="M129" s="104">
         <f t="shared" si="42"/>
         <v>425</v>
       </c>
-      <c r="N129" s="118"/>
-      <c r="O129" s="118"/>
+      <c r="N129" s="104"/>
+      <c r="O129" s="104"/>
     </row>
     <row r="130" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="66" t="s">
@@ -6961,19 +7014,19 @@
         <f t="shared" si="72"/>
         <v>8075</v>
       </c>
-      <c r="K130" s="118">
+      <c r="K130" s="104">
         <v>750</v>
       </c>
-      <c r="L130" s="118">
+      <c r="L130" s="104">
         <f t="shared" si="41"/>
         <v>112.5</v>
       </c>
-      <c r="M130" s="118">
+      <c r="M130" s="104">
         <f t="shared" si="42"/>
         <v>637.5</v>
       </c>
-      <c r="N130" s="118"/>
-      <c r="O130" s="118"/>
+      <c r="N130" s="104"/>
+      <c r="O130" s="104"/>
     </row>
     <row r="131" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="60"/>
@@ -6987,17 +7040,17 @@
       <c r="G131" s="65"/>
       <c r="H131" s="65"/>
       <c r="I131" s="65"/>
-      <c r="K131" s="118"/>
-      <c r="L131" s="118">
+      <c r="K131" s="104"/>
+      <c r="L131" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M131" s="118">
+      <c r="M131" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N131" s="118"/>
-      <c r="O131" s="118"/>
+      <c r="N131" s="104"/>
+      <c r="O131" s="104"/>
     </row>
     <row r="132" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="29" t="s">
@@ -7030,19 +7083,19 @@
         <f t="shared" ref="I132:I133" si="75">H132+F132</f>
         <v>7650</v>
       </c>
-      <c r="K132" s="118">
+      <c r="K132" s="104">
         <v>1000</v>
       </c>
-      <c r="L132" s="118">
+      <c r="L132" s="104">
         <f t="shared" si="41"/>
         <v>150</v>
       </c>
-      <c r="M132" s="118">
+      <c r="M132" s="104">
         <f t="shared" si="42"/>
         <v>850</v>
       </c>
-      <c r="N132" s="118"/>
-      <c r="O132" s="118"/>
+      <c r="N132" s="104"/>
+      <c r="O132" s="104"/>
     </row>
     <row r="133" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="29" t="s">
@@ -7075,19 +7128,19 @@
         <f t="shared" si="75"/>
         <v>6800</v>
       </c>
-      <c r="K133" s="118">
+      <c r="K133" s="104">
         <v>1000</v>
       </c>
-      <c r="L133" s="118">
+      <c r="L133" s="104">
         <f t="shared" si="41"/>
         <v>150</v>
       </c>
-      <c r="M133" s="118">
+      <c r="M133" s="104">
         <f t="shared" si="42"/>
         <v>850</v>
       </c>
-      <c r="N133" s="118"/>
-      <c r="O133" s="118"/>
+      <c r="N133" s="104"/>
+      <c r="O133" s="104"/>
     </row>
     <row r="134" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="60"/>
@@ -7101,17 +7154,17 @@
       <c r="G134" s="65"/>
       <c r="H134" s="65"/>
       <c r="I134" s="65"/>
-      <c r="K134" s="118"/>
-      <c r="L134" s="118">
+      <c r="K134" s="104"/>
+      <c r="L134" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M134" s="118">
+      <c r="M134" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N134" s="118"/>
-      <c r="O134" s="118"/>
+      <c r="N134" s="104"/>
+      <c r="O134" s="104"/>
     </row>
     <row r="135" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="29" t="s">
@@ -7144,19 +7197,19 @@
         <f t="shared" ref="I135:I136" si="78">H135+F135</f>
         <v>8500</v>
       </c>
-      <c r="K135" s="118">
+      <c r="K135" s="104">
         <v>1000</v>
       </c>
-      <c r="L135" s="118">
+      <c r="L135" s="104">
         <f t="shared" si="41"/>
         <v>150</v>
       </c>
-      <c r="M135" s="118">
+      <c r="M135" s="104">
         <f t="shared" si="42"/>
         <v>850</v>
       </c>
-      <c r="N135" s="118"/>
-      <c r="O135" s="118"/>
+      <c r="N135" s="104"/>
+      <c r="O135" s="104"/>
     </row>
     <row r="136" spans="1:15" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
@@ -7189,19 +7242,19 @@
         <f t="shared" si="78"/>
         <v>10200</v>
       </c>
-      <c r="K136" s="118">
+      <c r="K136" s="104">
         <v>1000</v>
       </c>
-      <c r="L136" s="118">
+      <c r="L136" s="104">
         <f t="shared" si="41"/>
         <v>150</v>
       </c>
-      <c r="M136" s="118">
+      <c r="M136" s="104">
         <f t="shared" si="42"/>
         <v>850</v>
       </c>
-      <c r="N136" s="118"/>
-      <c r="O136" s="118"/>
+      <c r="N136" s="104"/>
+      <c r="O136" s="104"/>
     </row>
     <row r="137" spans="1:15" s="55" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
@@ -7215,17 +7268,17 @@
       <c r="G137" s="73"/>
       <c r="H137" s="73"/>
       <c r="I137" s="65"/>
-      <c r="K137" s="118"/>
-      <c r="L137" s="118">
+      <c r="K137" s="104"/>
+      <c r="L137" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M137" s="118">
+      <c r="M137" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N137" s="118"/>
-      <c r="O137" s="118"/>
+      <c r="N137" s="104"/>
+      <c r="O137" s="104"/>
     </row>
     <row r="138" spans="1:15" s="59" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A138" s="60"/>
@@ -7239,17 +7292,17 @@
       <c r="G138" s="77"/>
       <c r="H138" s="77"/>
       <c r="I138" s="77"/>
-      <c r="K138" s="118"/>
-      <c r="L138" s="118">
+      <c r="K138" s="104"/>
+      <c r="L138" s="104">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M138" s="118">
+      <c r="M138" s="104">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N138" s="118"/>
-      <c r="O138" s="118"/>
+      <c r="N138" s="104"/>
+      <c r="O138" s="104"/>
     </row>
     <row r="139" spans="1:15" s="71" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="60"/>
@@ -7263,17 +7316,17 @@
       <c r="G139" s="77"/>
       <c r="H139" s="77"/>
       <c r="I139" s="77"/>
-      <c r="K139" s="119"/>
-      <c r="L139" s="118">
+      <c r="K139" s="105"/>
+      <c r="L139" s="104">
         <f t="shared" ref="L139:L149" si="79">K139*15%</f>
         <v>0</v>
       </c>
-      <c r="M139" s="118">
+      <c r="M139" s="104">
         <f t="shared" ref="M139:M149" si="80">K139-L139</f>
         <v>0</v>
       </c>
-      <c r="N139" s="119"/>
-      <c r="O139" s="119"/>
+      <c r="N139" s="105"/>
+      <c r="O139" s="105"/>
     </row>
     <row r="140" spans="1:15" s="59" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
@@ -7289,17 +7342,17 @@
       <c r="G140" s="77"/>
       <c r="H140" s="77"/>
       <c r="I140" s="77"/>
-      <c r="K140" s="118"/>
-      <c r="L140" s="118">
+      <c r="K140" s="104"/>
+      <c r="L140" s="104">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="M140" s="118">
+      <c r="M140" s="104">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="N140" s="118"/>
-      <c r="O140" s="118"/>
+      <c r="N140" s="104"/>
+      <c r="O140" s="104"/>
     </row>
     <row r="141" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="29" t="s">
@@ -7332,19 +7385,19 @@
         <f t="shared" ref="I141" si="83">H141+F141</f>
         <v>295800</v>
       </c>
-      <c r="K141" s="118">
+      <c r="K141" s="104">
         <v>8000</v>
       </c>
-      <c r="L141" s="118">
+      <c r="L141" s="104">
         <f t="shared" si="79"/>
         <v>1200</v>
       </c>
-      <c r="M141" s="118">
+      <c r="M141" s="104">
         <f t="shared" si="80"/>
         <v>6800</v>
       </c>
-      <c r="N141" s="118"/>
-      <c r="O141" s="118"/>
+      <c r="N141" s="104"/>
+      <c r="O141" s="104"/>
     </row>
     <row r="142" spans="1:15" s="71" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="60"/>
@@ -7358,17 +7411,17 @@
       <c r="G142" s="77"/>
       <c r="H142" s="77"/>
       <c r="I142" s="77"/>
-      <c r="K142" s="119"/>
-      <c r="L142" s="118">
+      <c r="K142" s="105"/>
+      <c r="L142" s="104">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="M142" s="118">
+      <c r="M142" s="104">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="N142" s="119"/>
-      <c r="O142" s="119"/>
+      <c r="N142" s="105"/>
+      <c r="O142" s="105"/>
     </row>
     <row r="143" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
@@ -7384,17 +7437,17 @@
       <c r="G143" s="77"/>
       <c r="H143" s="77"/>
       <c r="I143" s="77"/>
-      <c r="K143" s="118"/>
-      <c r="L143" s="118">
+      <c r="K143" s="104"/>
+      <c r="L143" s="104">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="M143" s="118">
+      <c r="M143" s="104">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="N143" s="118"/>
-      <c r="O143" s="118"/>
+      <c r="N143" s="104"/>
+      <c r="O143" s="104"/>
     </row>
     <row r="144" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
@@ -7408,17 +7461,17 @@
       <c r="G144" s="77"/>
       <c r="H144" s="77"/>
       <c r="I144" s="77"/>
-      <c r="K144" s="118"/>
-      <c r="L144" s="118">
+      <c r="K144" s="104"/>
+      <c r="L144" s="104">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="M144" s="118">
+      <c r="M144" s="104">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="N144" s="118"/>
-      <c r="O144" s="118"/>
+      <c r="N144" s="104"/>
+      <c r="O144" s="104"/>
     </row>
     <row r="145" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="29" t="s">
@@ -7451,19 +7504,19 @@
         <f t="shared" ref="I145" si="86">H145+F145</f>
         <v>1241000</v>
       </c>
-      <c r="K145" s="118">
+      <c r="K145" s="104">
         <v>15000</v>
       </c>
-      <c r="L145" s="118">
+      <c r="L145" s="104">
         <f t="shared" si="79"/>
         <v>2250</v>
       </c>
-      <c r="M145" s="118">
+      <c r="M145" s="104">
         <f t="shared" si="80"/>
         <v>12750</v>
       </c>
-      <c r="N145" s="118"/>
-      <c r="O145" s="118"/>
+      <c r="N145" s="104"/>
+      <c r="O145" s="104"/>
     </row>
     <row r="146" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
@@ -7477,17 +7530,17 @@
       <c r="G146" s="77"/>
       <c r="H146" s="77"/>
       <c r="I146" s="77"/>
-      <c r="K146" s="118"/>
-      <c r="L146" s="118">
+      <c r="K146" s="104"/>
+      <c r="L146" s="104">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="M146" s="118">
+      <c r="M146" s="104">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="N146" s="118"/>
-      <c r="O146" s="118"/>
+      <c r="N146" s="104"/>
+      <c r="O146" s="104"/>
     </row>
     <row r="147" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="29" t="s">
@@ -7520,19 +7573,19 @@
         <f t="shared" ref="I147" si="89">H147+F147</f>
         <v>1207000</v>
       </c>
-      <c r="K147" s="118">
+      <c r="K147" s="104">
         <v>5000</v>
       </c>
-      <c r="L147" s="118">
+      <c r="L147" s="104">
         <f t="shared" si="79"/>
         <v>750</v>
       </c>
-      <c r="M147" s="118">
+      <c r="M147" s="104">
         <f t="shared" si="80"/>
         <v>4250</v>
       </c>
-      <c r="N147" s="118"/>
-      <c r="O147" s="118"/>
+      <c r="N147" s="104"/>
+      <c r="O147" s="104"/>
     </row>
     <row r="148" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="60"/>
@@ -7546,17 +7599,17 @@
       <c r="G148" s="77"/>
       <c r="H148" s="77"/>
       <c r="I148" s="77"/>
-      <c r="K148" s="118"/>
-      <c r="L148" s="118">
+      <c r="K148" s="104"/>
+      <c r="L148" s="104">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="M148" s="118">
+      <c r="M148" s="104">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="N148" s="118"/>
-      <c r="O148" s="118"/>
+      <c r="N148" s="104"/>
+      <c r="O148" s="104"/>
     </row>
     <row r="149" spans="1:15" s="59" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A149" s="29" t="s">
@@ -7589,19 +7642,19 @@
         <f t="shared" ref="I149" si="92">H149+F149</f>
         <v>1147500</v>
       </c>
-      <c r="K149" s="118">
+      <c r="K149" s="104">
         <v>150000</v>
       </c>
-      <c r="L149" s="118">
+      <c r="L149" s="104">
         <f t="shared" si="79"/>
         <v>22500</v>
       </c>
-      <c r="M149" s="118">
+      <c r="M149" s="104">
         <f t="shared" si="80"/>
         <v>127500</v>
       </c>
-      <c r="N149" s="118"/>
-      <c r="O149" s="118"/>
+      <c r="N149" s="104"/>
+      <c r="O149" s="104"/>
     </row>
     <row r="150" spans="1:15" s="59" customFormat="1" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
@@ -7615,11 +7668,11 @@
       <c r="G150" s="77"/>
       <c r="H150" s="77"/>
       <c r="I150" s="77"/>
-      <c r="K150" s="118"/>
-      <c r="L150" s="118"/>
-      <c r="M150" s="118"/>
-      <c r="N150" s="118"/>
-      <c r="O150" s="118"/>
+      <c r="K150" s="104"/>
+      <c r="L150" s="104"/>
+      <c r="M150" s="104"/>
+      <c r="N150" s="104"/>
+      <c r="O150" s="104"/>
     </row>
     <row r="151" spans="1:15" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="29"/>
@@ -7633,31 +7686,31 @@
       <c r="G151" s="77"/>
       <c r="H151" s="77"/>
       <c r="I151" s="77"/>
-      <c r="K151" s="118"/>
-      <c r="L151" s="118"/>
-      <c r="M151" s="118"/>
-      <c r="N151" s="118"/>
-      <c r="O151" s="118"/>
+      <c r="K151" s="104"/>
+      <c r="L151" s="104"/>
+      <c r="M151" s="104"/>
+      <c r="N151" s="104"/>
+      <c r="O151" s="104"/>
     </row>
     <row r="152" spans="1:15" s="59" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="29"/>
       <c r="B152" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="C152" s="105" t="s">
+      <c r="C152" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="D152" s="106"/>
-      <c r="E152" s="106"/>
-      <c r="F152" s="106"/>
-      <c r="G152" s="106"/>
-      <c r="H152" s="106"/>
-      <c r="I152" s="107"/>
-      <c r="K152" s="118"/>
-      <c r="L152" s="118"/>
-      <c r="M152" s="118"/>
-      <c r="N152" s="118"/>
-      <c r="O152" s="118"/>
+      <c r="D152" s="110"/>
+      <c r="E152" s="110"/>
+      <c r="F152" s="110"/>
+      <c r="G152" s="110"/>
+      <c r="H152" s="110"/>
+      <c r="I152" s="111"/>
+      <c r="K152" s="104"/>
+      <c r="L152" s="104"/>
+      <c r="M152" s="104"/>
+      <c r="N152" s="104"/>
+      <c r="O152" s="104"/>
     </row>
     <row r="153" spans="1:15" s="59" customFormat="1" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
@@ -7686,11 +7739,11 @@
         <f t="shared" ref="I153:I157" si="95">H153+F153</f>
         <v>0</v>
       </c>
-      <c r="K153" s="118"/>
-      <c r="L153" s="118"/>
-      <c r="M153" s="118"/>
-      <c r="N153" s="118"/>
-      <c r="O153" s="118"/>
+      <c r="K153" s="104"/>
+      <c r="L153" s="104"/>
+      <c r="M153" s="104"/>
+      <c r="N153" s="104"/>
+      <c r="O153" s="104"/>
     </row>
     <row r="154" spans="1:15" s="59" customFormat="1" ht="181.5" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
@@ -7719,11 +7772,11 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="K154" s="118"/>
-      <c r="L154" s="118"/>
-      <c r="M154" s="118"/>
-      <c r="N154" s="118"/>
-      <c r="O154" s="118"/>
+      <c r="K154" s="104"/>
+      <c r="L154" s="104"/>
+      <c r="M154" s="104"/>
+      <c r="N154" s="104"/>
+      <c r="O154" s="104"/>
     </row>
     <row r="155" spans="1:15" s="59" customFormat="1" ht="198" x14ac:dyDescent="0.2">
       <c r="A155" s="29">
@@ -7752,11 +7805,11 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="K155" s="118"/>
-      <c r="L155" s="118"/>
-      <c r="M155" s="118"/>
-      <c r="N155" s="118"/>
-      <c r="O155" s="118"/>
+      <c r="K155" s="104"/>
+      <c r="L155" s="104"/>
+      <c r="M155" s="104"/>
+      <c r="N155" s="104"/>
+      <c r="O155" s="104"/>
     </row>
     <row r="156" spans="1:15" s="59" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A156" s="29">
@@ -7785,11 +7838,11 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="K156" s="118"/>
-      <c r="L156" s="118"/>
-      <c r="M156" s="118"/>
-      <c r="N156" s="118"/>
-      <c r="O156" s="118"/>
+      <c r="K156" s="104"/>
+      <c r="L156" s="104"/>
+      <c r="M156" s="104"/>
+      <c r="N156" s="104"/>
+      <c r="O156" s="104"/>
     </row>
     <row r="157" spans="1:15" s="59" customFormat="1" ht="132" x14ac:dyDescent="0.2">
       <c r="A157" s="29">
@@ -7818,11 +7871,11 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="K157" s="118"/>
-      <c r="L157" s="118"/>
-      <c r="M157" s="118"/>
-      <c r="N157" s="118"/>
-      <c r="O157" s="118"/>
+      <c r="K157" s="104"/>
+      <c r="L157" s="104"/>
+      <c r="M157" s="104"/>
+      <c r="N157" s="104"/>
+      <c r="O157" s="104"/>
     </row>
     <row r="158" spans="1:15" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
@@ -7836,11 +7889,11 @@
       <c r="G158" s="77"/>
       <c r="H158" s="77"/>
       <c r="I158" s="77"/>
-      <c r="K158" s="118"/>
-      <c r="L158" s="118"/>
-      <c r="M158" s="118"/>
-      <c r="N158" s="118"/>
-      <c r="O158" s="118"/>
+      <c r="K158" s="104"/>
+      <c r="L158" s="104"/>
+      <c r="M158" s="104"/>
+      <c r="N158" s="104"/>
+      <c r="O158" s="104"/>
     </row>
     <row r="159" spans="1:15" s="59" customFormat="1" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A159" s="29">
@@ -7869,11 +7922,11 @@
         <f t="shared" ref="I159:I162" si="98">H159+F159</f>
         <v>0</v>
       </c>
-      <c r="K159" s="118"/>
-      <c r="L159" s="118"/>
-      <c r="M159" s="118"/>
-      <c r="N159" s="118"/>
-      <c r="O159" s="118"/>
+      <c r="K159" s="104"/>
+      <c r="L159" s="104"/>
+      <c r="M159" s="104"/>
+      <c r="N159" s="104"/>
+      <c r="O159" s="104"/>
     </row>
     <row r="160" spans="1:15" s="59" customFormat="1" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A160" s="29">
@@ -7902,11 +7955,11 @@
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K160" s="118"/>
-      <c r="L160" s="118"/>
-      <c r="M160" s="118"/>
-      <c r="N160" s="118"/>
-      <c r="O160" s="118"/>
+      <c r="K160" s="104"/>
+      <c r="L160" s="104"/>
+      <c r="M160" s="104"/>
+      <c r="N160" s="104"/>
+      <c r="O160" s="104"/>
     </row>
     <row r="161" spans="1:15" s="59" customFormat="1" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A161" s="29">
@@ -7935,11 +7988,11 @@
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K161" s="118"/>
-      <c r="L161" s="118"/>
-      <c r="M161" s="118"/>
-      <c r="N161" s="118"/>
-      <c r="O161" s="118"/>
+      <c r="K161" s="104"/>
+      <c r="L161" s="104"/>
+      <c r="M161" s="104"/>
+      <c r="N161" s="104"/>
+      <c r="O161" s="104"/>
     </row>
     <row r="162" spans="1:15" s="59" customFormat="1" ht="132" x14ac:dyDescent="0.2">
       <c r="A162" s="29">
@@ -7968,11 +8021,11 @@
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K162" s="118"/>
-      <c r="L162" s="118"/>
-      <c r="M162" s="118"/>
-      <c r="N162" s="118"/>
-      <c r="O162" s="118"/>
+      <c r="K162" s="104"/>
+      <c r="L162" s="104"/>
+      <c r="M162" s="104"/>
+      <c r="N162" s="104"/>
+      <c r="O162" s="104"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
@@ -8034,111 +8087,111 @@
     <col min="4" max="4" width="6.7109375" style="33" customWidth="1"/>
     <col min="5" max="9" width="11.7109375" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="12"/>
-    <col min="11" max="11" width="15.5703125" style="116" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="116"/>
-    <col min="13" max="13" width="11.85546875" style="116" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="102"/>
+    <col min="13" max="13" width="11.85546875" style="102" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="44"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
       <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="46"/>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="109"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
@@ -8151,10 +8204,10 @@
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
+      <c r="I8" s="114"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -8168,9 +8221,9 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -8203,14 +8256,14 @@
         <f>H10+F10</f>
         <v>21250</v>
       </c>
-      <c r="K10" s="118">
+      <c r="K10" s="104">
         <v>15000</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="104">
         <f>K10*15%</f>
         <v>2250</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="104">
         <f>K10-L10</f>
         <v>12750</v>
       </c>
@@ -8246,14 +8299,14 @@
         <f>H11+F11</f>
         <v>17000</v>
       </c>
-      <c r="K11" s="118">
+      <c r="K11" s="104">
         <v>10000</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="104">
         <f t="shared" ref="L11:L74" si="0">K11*15%</f>
         <v>1500</v>
       </c>
-      <c r="M11" s="118">
+      <c r="M11" s="104">
         <f t="shared" ref="M11:M74" si="1">K11-L11</f>
         <v>8500</v>
       </c>
@@ -8270,12 +8323,12 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118">
+      <c r="K12" s="104"/>
+      <c r="L12" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="118">
+      <c r="M12" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8290,12 +8343,12 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118">
+      <c r="K13" s="104"/>
+      <c r="L13" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="118">
+      <c r="M13" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8312,12 +8365,12 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118">
+      <c r="K14" s="104"/>
+      <c r="L14" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="118">
+      <c r="M14" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8334,12 +8387,12 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118">
+      <c r="K15" s="104"/>
+      <c r="L15" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="118">
+      <c r="M15" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8375,14 +8428,14 @@
         <f>H16+F16</f>
         <v>255000</v>
       </c>
-      <c r="K16" s="118">
+      <c r="K16" s="104">
         <v>300000</v>
       </c>
-      <c r="L16" s="118">
+      <c r="L16" s="104">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="M16" s="118">
+      <c r="M16" s="104">
         <f t="shared" si="1"/>
         <v>255000</v>
       </c>
@@ -8397,12 +8450,12 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118">
+      <c r="K17" s="104"/>
+      <c r="L17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="118">
+      <c r="M17" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8419,12 +8472,12 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118">
+      <c r="K18" s="104"/>
+      <c r="L18" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8441,12 +8494,12 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118">
+      <c r="K19" s="104"/>
+      <c r="L19" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="118">
+      <c r="M19" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8463,12 +8516,12 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118">
+      <c r="K20" s="104"/>
+      <c r="L20" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="118">
+      <c r="M20" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8504,14 +8557,14 @@
         <f>H21+F21</f>
         <v>55250</v>
       </c>
-      <c r="K21" s="118">
+      <c r="K21" s="104">
         <v>15000</v>
       </c>
-      <c r="L21" s="118">
+      <c r="L21" s="104">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="M21" s="118">
+      <c r="M21" s="104">
         <f t="shared" si="1"/>
         <v>12750</v>
       </c>
@@ -8528,12 +8581,12 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118">
+      <c r="K22" s="104"/>
+      <c r="L22" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="118">
+      <c r="M22" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8569,14 +8622,14 @@
         <f>H23+F23</f>
         <v>20400</v>
       </c>
-      <c r="K23" s="118">
+      <c r="K23" s="104">
         <v>1000</v>
       </c>
-      <c r="L23" s="118">
+      <c r="L23" s="104">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="M23" s="118">
+      <c r="M23" s="104">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
@@ -8593,12 +8646,12 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118">
+      <c r="K24" s="104"/>
+      <c r="L24" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="118">
+      <c r="M24" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8617,12 +8670,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118">
+      <c r="K25" s="104"/>
+      <c r="L25" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="118">
+      <c r="M25" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8639,12 +8692,12 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118">
+      <c r="K26" s="104"/>
+      <c r="L26" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="118">
+      <c r="M26" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8680,14 +8733,14 @@
         <f>H27+F27</f>
         <v>124312.5</v>
       </c>
-      <c r="K27" s="118">
+      <c r="K27" s="104">
         <v>4000</v>
       </c>
-      <c r="L27" s="118">
+      <c r="L27" s="104">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="M27" s="118">
+      <c r="M27" s="104">
         <f t="shared" si="1"/>
         <v>3400</v>
       </c>
@@ -8704,12 +8757,12 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118">
+      <c r="K28" s="104"/>
+      <c r="L28" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="118">
+      <c r="M28" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8745,14 +8798,14 @@
         <f>H29+F29</f>
         <v>391000</v>
       </c>
-      <c r="K29" s="118">
+      <c r="K29" s="104">
         <v>5000</v>
       </c>
-      <c r="L29" s="118">
+      <c r="L29" s="104">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="M29" s="118">
+      <c r="M29" s="104">
         <f t="shared" si="1"/>
         <v>4250</v>
       </c>
@@ -8769,12 +8822,12 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118">
+      <c r="K30" s="104"/>
+      <c r="L30" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="118">
+      <c r="M30" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8810,14 +8863,14 @@
         <f>H31+F31</f>
         <v>48450</v>
       </c>
-      <c r="K31" s="118">
+      <c r="K31" s="104">
         <v>2000</v>
       </c>
-      <c r="L31" s="118">
+      <c r="L31" s="104">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="M31" s="118">
+      <c r="M31" s="104">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
@@ -8834,12 +8887,12 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118">
+      <c r="K32" s="104"/>
+      <c r="L32" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="118">
+      <c r="M32" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8875,14 +8928,14 @@
         <f>H33+F33</f>
         <v>153000</v>
       </c>
-      <c r="K33" s="118">
+      <c r="K33" s="104">
         <v>30000</v>
       </c>
-      <c r="L33" s="118">
+      <c r="L33" s="104">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="M33" s="118">
+      <c r="M33" s="104">
         <f t="shared" si="1"/>
         <v>25500</v>
       </c>
@@ -8899,12 +8952,12 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118">
+      <c r="K34" s="104"/>
+      <c r="L34" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="118">
+      <c r="M34" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8940,14 +8993,14 @@
         <f>H35+F35</f>
         <v>68000</v>
       </c>
-      <c r="K35" s="118">
+      <c r="K35" s="104">
         <v>45000</v>
       </c>
-      <c r="L35" s="118">
+      <c r="L35" s="104">
         <f t="shared" si="0"/>
         <v>6750</v>
       </c>
-      <c r="M35" s="118">
+      <c r="M35" s="104">
         <f t="shared" si="1"/>
         <v>38250</v>
       </c>
@@ -8964,12 +9017,12 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118">
+      <c r="K36" s="104"/>
+      <c r="L36" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="118">
+      <c r="M36" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9005,14 +9058,14 @@
         <f>H37+F37</f>
         <v>34000</v>
       </c>
-      <c r="K37" s="118">
+      <c r="K37" s="104">
         <v>10000</v>
       </c>
-      <c r="L37" s="118">
+      <c r="L37" s="104">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="M37" s="118">
+      <c r="M37" s="104">
         <f t="shared" si="1"/>
         <v>8500</v>
       </c>
@@ -9027,12 +9080,12 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118">
+      <c r="K38" s="104"/>
+      <c r="L38" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="118">
+      <c r="M38" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9049,12 +9102,12 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118">
+      <c r="K39" s="104"/>
+      <c r="L39" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="118">
+      <c r="M39" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9071,12 +9124,12 @@
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118">
+      <c r="K40" s="104"/>
+      <c r="L40" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="118">
+      <c r="M40" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9093,12 +9146,12 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118">
+      <c r="K41" s="104"/>
+      <c r="L41" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="118">
+      <c r="M41" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9134,14 +9187,14 @@
         <f>H42+F42</f>
         <v>34000</v>
       </c>
-      <c r="K42" s="118">
+      <c r="K42" s="104">
         <v>40000</v>
       </c>
-      <c r="L42" s="118">
+      <c r="L42" s="104">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="M42" s="118">
+      <c r="M42" s="104">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
@@ -9177,14 +9230,14 @@
         <f t="shared" ref="I43:I44" si="4">H43+F43</f>
         <v>42500</v>
       </c>
-      <c r="K43" s="118">
+      <c r="K43" s="104">
         <v>35000</v>
       </c>
-      <c r="L43" s="118">
+      <c r="L43" s="104">
         <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="M43" s="118">
+      <c r="M43" s="104">
         <f t="shared" si="1"/>
         <v>29750</v>
       </c>
@@ -9220,14 +9273,14 @@
         <f t="shared" si="4"/>
         <v>34000</v>
       </c>
-      <c r="K44" s="118">
+      <c r="K44" s="104">
         <v>40000</v>
       </c>
-      <c r="L44" s="118">
+      <c r="L44" s="104">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="M44" s="118">
+      <c r="M44" s="104">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
@@ -9242,12 +9295,12 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118">
+      <c r="K45" s="104"/>
+      <c r="L45" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="118">
+      <c r="M45" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9264,12 +9317,12 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118">
+      <c r="K46" s="104"/>
+      <c r="L46" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="118">
+      <c r="M46" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9286,12 +9339,12 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118">
+      <c r="K47" s="104"/>
+      <c r="L47" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="118">
+      <c r="M47" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9308,12 +9361,12 @@
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118">
+      <c r="K48" s="104"/>
+      <c r="L48" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M48" s="118">
+      <c r="M48" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9332,12 +9385,12 @@
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118">
+      <c r="K49" s="104"/>
+      <c r="L49" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="118">
+      <c r="M49" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9373,14 +9426,14 @@
         <f>H50+F50</f>
         <v>202300</v>
       </c>
-      <c r="K50" s="118">
+      <c r="K50" s="104">
         <v>10000</v>
       </c>
-      <c r="L50" s="118">
+      <c r="L50" s="104">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M50" s="104">
         <f t="shared" si="1"/>
         <v>8500</v>
       </c>
@@ -9395,12 +9448,12 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118">
+      <c r="K51" s="104"/>
+      <c r="L51" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="118">
+      <c r="M51" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9417,12 +9470,12 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118">
+      <c r="K52" s="104"/>
+      <c r="L52" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M52" s="118">
+      <c r="M52" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9439,12 +9492,12 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118">
+      <c r="K53" s="104"/>
+      <c r="L53" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M53" s="118">
+      <c r="M53" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9461,12 +9514,12 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118">
+      <c r="K54" s="104"/>
+      <c r="L54" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="118">
+      <c r="M54" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9483,12 +9536,12 @@
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118">
+      <c r="K55" s="104"/>
+      <c r="L55" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="118">
+      <c r="M55" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9507,12 +9560,12 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118">
+      <c r="K56" s="104"/>
+      <c r="L56" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="118">
+      <c r="M56" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9548,14 +9601,14 @@
         <f>H57+F57</f>
         <v>505750</v>
       </c>
-      <c r="K57" s="118">
+      <c r="K57" s="104">
         <v>250</v>
       </c>
-      <c r="L57" s="118">
+      <c r="L57" s="104">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="M57" s="118">
+      <c r="M57" s="104">
         <f t="shared" si="1"/>
         <v>212.5</v>
       </c>
@@ -9591,14 +9644,14 @@
         <f t="shared" ref="I58:I62" si="7">H58+F58</f>
         <v>53550</v>
       </c>
-      <c r="K58" s="118">
+      <c r="K58" s="104">
         <v>300</v>
       </c>
-      <c r="L58" s="118">
+      <c r="L58" s="104">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="M58" s="118">
+      <c r="M58" s="104">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
@@ -9634,14 +9687,14 @@
         <f t="shared" si="7"/>
         <v>113900</v>
       </c>
-      <c r="K59" s="118">
+      <c r="K59" s="104">
         <v>350</v>
       </c>
-      <c r="L59" s="118">
+      <c r="L59" s="104">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="M59" s="118">
+      <c r="M59" s="104">
         <f t="shared" si="1"/>
         <v>297.5</v>
       </c>
@@ -9677,14 +9730,14 @@
         <f t="shared" si="7"/>
         <v>159018</v>
       </c>
-      <c r="K60" s="118">
+      <c r="K60" s="104">
         <v>400</v>
       </c>
-      <c r="L60" s="118">
+      <c r="L60" s="104">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M60" s="118">
+      <c r="M60" s="104">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
@@ -9720,14 +9773,14 @@
         <f t="shared" si="7"/>
         <v>497029</v>
       </c>
-      <c r="K61" s="118">
+      <c r="K61" s="104">
         <v>450</v>
       </c>
-      <c r="L61" s="118">
+      <c r="L61" s="104">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-      <c r="M61" s="118">
+      <c r="M61" s="104">
         <f t="shared" si="1"/>
         <v>382.5</v>
       </c>
@@ -9763,14 +9816,14 @@
         <f t="shared" si="7"/>
         <v>191080</v>
       </c>
-      <c r="K62" s="118">
+      <c r="K62" s="104">
         <v>500</v>
       </c>
-      <c r="L62" s="118">
+      <c r="L62" s="104">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="M62" s="118">
+      <c r="M62" s="104">
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
@@ -9785,12 +9838,12 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118">
+      <c r="K63" s="104"/>
+      <c r="L63" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="118">
+      <c r="M63" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9807,12 +9860,12 @@
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118">
+      <c r="K64" s="104"/>
+      <c r="L64" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M64" s="118">
+      <c r="M64" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9829,12 +9882,12 @@
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="118">
+      <c r="K65" s="105"/>
+      <c r="L65" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="118">
+      <c r="M65" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9851,12 +9904,12 @@
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
-      <c r="K66" s="118"/>
-      <c r="L66" s="118">
+      <c r="K66" s="104"/>
+      <c r="L66" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="118">
+      <c r="M66" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9875,12 +9928,12 @@
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118">
+      <c r="K67" s="104"/>
+      <c r="L67" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="118">
+      <c r="M67" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9916,14 +9969,14 @@
         <f>H68+F68</f>
         <v>654075</v>
       </c>
-      <c r="K68" s="118">
+      <c r="K68" s="104">
         <v>750</v>
       </c>
-      <c r="L68" s="118">
+      <c r="L68" s="104">
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="M68" s="118">
+      <c r="M68" s="104">
         <f t="shared" si="1"/>
         <v>637.5</v>
       </c>
@@ -9938,12 +9991,12 @@
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118">
+      <c r="K69" s="104"/>
+      <c r="L69" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="118">
+      <c r="M69" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9960,12 +10013,12 @@
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118">
+      <c r="K70" s="104"/>
+      <c r="L70" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M70" s="118">
+      <c r="M70" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9982,12 +10035,12 @@
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
-      <c r="K71" s="118"/>
-      <c r="L71" s="118">
+      <c r="K71" s="104"/>
+      <c r="L71" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M71" s="118">
+      <c r="M71" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10004,12 +10057,12 @@
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
-      <c r="K72" s="118"/>
-      <c r="L72" s="118">
+      <c r="K72" s="104"/>
+      <c r="L72" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M72" s="118">
+      <c r="M72" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10026,12 +10079,12 @@
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="118">
+      <c r="K73" s="104"/>
+      <c r="L73" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M73" s="118">
+      <c r="M73" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10067,14 +10120,14 @@
         <f>H74+F74</f>
         <v>255000</v>
       </c>
-      <c r="K74" s="118">
+      <c r="K74" s="104">
         <v>1000</v>
       </c>
-      <c r="L74" s="118">
+      <c r="L74" s="104">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="M74" s="118">
+      <c r="M74" s="104">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
@@ -10091,12 +10144,12 @@
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
-      <c r="K75" s="118"/>
-      <c r="L75" s="118">
+      <c r="K75" s="104"/>
+      <c r="L75" s="104">
         <f t="shared" ref="L75:L138" si="8">K75*15%</f>
         <v>0</v>
       </c>
-      <c r="M75" s="118">
+      <c r="M75" s="104">
         <f t="shared" ref="M75:M138" si="9">K75-L75</f>
         <v>0</v>
       </c>
@@ -10132,14 +10185,14 @@
         <f>H76+F76</f>
         <v>131750</v>
       </c>
-      <c r="K76" s="118">
+      <c r="K76" s="104">
         <v>1000</v>
       </c>
-      <c r="L76" s="118">
+      <c r="L76" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M76" s="118">
+      <c r="M76" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
@@ -10156,12 +10209,12 @@
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
-      <c r="K77" s="118"/>
-      <c r="L77" s="118">
+      <c r="K77" s="104"/>
+      <c r="L77" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M77" s="118">
+      <c r="M77" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10197,14 +10250,14 @@
         <f>H78+F78</f>
         <v>46112.5</v>
       </c>
-      <c r="K78" s="118">
+      <c r="K78" s="104">
         <v>1000</v>
       </c>
-      <c r="L78" s="118">
+      <c r="L78" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M78" s="118">
+      <c r="M78" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
@@ -10221,12 +10274,12 @@
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118">
+      <c r="K79" s="104"/>
+      <c r="L79" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M79" s="118">
+      <c r="M79" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10262,14 +10315,14 @@
         <f>H80+F80</f>
         <v>72675</v>
       </c>
-      <c r="K80" s="118">
+      <c r="K80" s="104">
         <v>1000</v>
       </c>
-      <c r="L80" s="118">
+      <c r="L80" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M80" s="118">
+      <c r="M80" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
@@ -10284,12 +10337,12 @@
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118">
+      <c r="K81" s="104"/>
+      <c r="L81" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M81" s="118">
+      <c r="M81" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10315,881 +10368,881 @@
         <f>SUM(I10:I81)</f>
         <v>4180402</v>
       </c>
-      <c r="K82" s="118">
+      <c r="K82" s="104">
         <v>100</v>
       </c>
-      <c r="L82" s="118">
+      <c r="L82" s="104">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="M82" s="118">
+      <c r="M82" s="104">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K83" s="118">
+      <c r="K83" s="104">
         <v>100</v>
       </c>
-      <c r="L83" s="118">
+      <c r="L83" s="104">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="M83" s="118">
+      <c r="M83" s="104">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K84" s="118">
+      <c r="K84" s="104">
         <v>100</v>
       </c>
-      <c r="L84" s="118">
+      <c r="L84" s="104">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="M84" s="118">
+      <c r="M84" s="104">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K85" s="118">
+      <c r="K85" s="104">
         <v>125</v>
       </c>
-      <c r="L85" s="118">
+      <c r="L85" s="104">
         <f t="shared" si="8"/>
         <v>18.75</v>
       </c>
-      <c r="M85" s="118">
+      <c r="M85" s="104">
         <f t="shared" si="9"/>
         <v>106.25</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K86" s="118">
+      <c r="K86" s="104">
         <v>150</v>
       </c>
-      <c r="L86" s="118">
+      <c r="L86" s="104">
         <f t="shared" si="8"/>
         <v>22.5</v>
       </c>
-      <c r="M86" s="118">
+      <c r="M86" s="104">
         <f t="shared" si="9"/>
         <v>127.5</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K87" s="118"/>
-      <c r="L87" s="118">
+      <c r="K87" s="104"/>
+      <c r="L87" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M87" s="118">
+      <c r="M87" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K88" s="118"/>
-      <c r="L88" s="118">
+      <c r="K88" s="104"/>
+      <c r="L88" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M88" s="118">
+      <c r="M88" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K89" s="118"/>
-      <c r="L89" s="118">
+      <c r="K89" s="104"/>
+      <c r="L89" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M89" s="118">
+      <c r="M89" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K90" s="118"/>
-      <c r="L90" s="118">
+      <c r="K90" s="104"/>
+      <c r="L90" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M90" s="118">
+      <c r="M90" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K91" s="118">
+      <c r="K91" s="104">
         <v>80</v>
       </c>
-      <c r="L91" s="118">
+      <c r="L91" s="104">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="M91" s="118">
+      <c r="M91" s="104">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K92" s="118"/>
-      <c r="L92" s="118">
+      <c r="K92" s="104"/>
+      <c r="L92" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M92" s="118">
+      <c r="M92" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K93" s="118">
+      <c r="K93" s="104">
         <v>1000</v>
       </c>
-      <c r="L93" s="118">
+      <c r="L93" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M93" s="118">
+      <c r="M93" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K94" s="118"/>
-      <c r="L94" s="118">
+      <c r="K94" s="104"/>
+      <c r="L94" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M94" s="118">
+      <c r="M94" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K95" s="118"/>
-      <c r="L95" s="118">
+      <c r="K95" s="104"/>
+      <c r="L95" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M95" s="118">
+      <c r="M95" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K96" s="118"/>
-      <c r="L96" s="118">
+      <c r="K96" s="104"/>
+      <c r="L96" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M96" s="118">
+      <c r="M96" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K97" s="118"/>
-      <c r="L97" s="118">
+      <c r="K97" s="104"/>
+      <c r="L97" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M97" s="118">
+      <c r="M97" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K98" s="118"/>
-      <c r="L98" s="118">
+      <c r="K98" s="104"/>
+      <c r="L98" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M98" s="118">
+      <c r="M98" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K99" s="118">
+      <c r="K99" s="104">
         <v>750</v>
       </c>
-      <c r="L99" s="118">
+      <c r="L99" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M99" s="118">
+      <c r="M99" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="100" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K100" s="118">
+      <c r="K100" s="104">
         <v>750</v>
       </c>
-      <c r="L100" s="118">
+      <c r="L100" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M100" s="118">
+      <c r="M100" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="101" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K101" s="118">
+      <c r="K101" s="104">
         <v>750</v>
       </c>
-      <c r="L101" s="118">
+      <c r="L101" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M101" s="118">
+      <c r="M101" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="102" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K102" s="118"/>
-      <c r="L102" s="118">
+      <c r="K102" s="104"/>
+      <c r="L102" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M102" s="118">
+      <c r="M102" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K103" s="118">
+      <c r="K103" s="104">
         <v>750</v>
       </c>
-      <c r="L103" s="118">
+      <c r="L103" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M103" s="118">
+      <c r="M103" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="104" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K104" s="118">
+      <c r="K104" s="104">
         <v>750</v>
       </c>
-      <c r="L104" s="118">
+      <c r="L104" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M104" s="118">
+      <c r="M104" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="105" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K105" s="118">
+      <c r="K105" s="104">
         <v>750</v>
       </c>
-      <c r="L105" s="118">
+      <c r="L105" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M105" s="118">
+      <c r="M105" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="106" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K106" s="118"/>
-      <c r="L106" s="118">
+      <c r="K106" s="104"/>
+      <c r="L106" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M106" s="118">
+      <c r="M106" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K107" s="118">
+      <c r="K107" s="104">
         <v>15000</v>
       </c>
-      <c r="L107" s="118">
+      <c r="L107" s="104">
         <f t="shared" si="8"/>
         <v>2250</v>
       </c>
-      <c r="M107" s="118">
+      <c r="M107" s="104">
         <f t="shared" si="9"/>
         <v>12750</v>
       </c>
     </row>
     <row r="108" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K108" s="118"/>
-      <c r="L108" s="118">
+      <c r="K108" s="104"/>
+      <c r="L108" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M108" s="118">
+      <c r="M108" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K109" s="118"/>
-      <c r="L109" s="118">
+      <c r="K109" s="104"/>
+      <c r="L109" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M109" s="118">
+      <c r="M109" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K110" s="118">
+      <c r="K110" s="104">
         <v>100</v>
       </c>
-      <c r="L110" s="118">
+      <c r="L110" s="104">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="M110" s="118">
+      <c r="M110" s="104">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
     </row>
     <row r="111" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K111" s="118">
+      <c r="K111" s="104">
         <v>300</v>
       </c>
-      <c r="L111" s="118">
+      <c r="L111" s="104">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="M111" s="118">
+      <c r="M111" s="104">
         <f t="shared" si="9"/>
         <v>255</v>
       </c>
     </row>
     <row r="112" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K112" s="118"/>
-      <c r="L112" s="118">
+      <c r="K112" s="104"/>
+      <c r="L112" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M112" s="118">
+      <c r="M112" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K113" s="118"/>
-      <c r="L113" s="118">
+      <c r="K113" s="104"/>
+      <c r="L113" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M113" s="118">
+      <c r="M113" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K114" s="118"/>
-      <c r="L114" s="118">
+      <c r="K114" s="104"/>
+      <c r="L114" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M114" s="118">
+      <c r="M114" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K115" s="118"/>
-      <c r="L115" s="118">
+      <c r="K115" s="104"/>
+      <c r="L115" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M115" s="118">
+      <c r="M115" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K116" s="118"/>
-      <c r="L116" s="118">
+      <c r="K116" s="104"/>
+      <c r="L116" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M116" s="118">
+      <c r="M116" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K117" s="118">
+      <c r="K117" s="104">
         <v>10000</v>
       </c>
-      <c r="L117" s="118">
+      <c r="L117" s="104">
         <f t="shared" si="8"/>
         <v>1500</v>
       </c>
-      <c r="M117" s="118">
+      <c r="M117" s="104">
         <f t="shared" si="9"/>
         <v>8500</v>
       </c>
     </row>
     <row r="118" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K118" s="118">
+      <c r="K118" s="104">
         <v>6000</v>
       </c>
-      <c r="L118" s="118">
+      <c r="L118" s="104">
         <f t="shared" si="8"/>
         <v>900</v>
       </c>
-      <c r="M118" s="118">
+      <c r="M118" s="104">
         <f t="shared" si="9"/>
         <v>5100</v>
       </c>
     </row>
     <row r="119" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K119" s="118">
+      <c r="K119" s="104">
         <v>6000</v>
       </c>
-      <c r="L119" s="118">
+      <c r="L119" s="104">
         <f t="shared" si="8"/>
         <v>900</v>
       </c>
-      <c r="M119" s="118">
+      <c r="M119" s="104">
         <f t="shared" si="9"/>
         <v>5100</v>
       </c>
     </row>
     <row r="120" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K120" s="118">
+      <c r="K120" s="104">
         <v>5000</v>
       </c>
-      <c r="L120" s="118">
+      <c r="L120" s="104">
         <f t="shared" si="8"/>
         <v>750</v>
       </c>
-      <c r="M120" s="118">
+      <c r="M120" s="104">
         <f t="shared" si="9"/>
         <v>4250</v>
       </c>
     </row>
     <row r="121" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K121" s="118"/>
-      <c r="L121" s="118">
+      <c r="K121" s="104"/>
+      <c r="L121" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M121" s="118">
+      <c r="M121" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K122" s="118"/>
-      <c r="L122" s="118">
+      <c r="K122" s="104"/>
+      <c r="L122" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M122" s="118">
+      <c r="M122" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K123" s="119"/>
-      <c r="L123" s="118">
+      <c r="K123" s="105"/>
+      <c r="L123" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M123" s="118">
+      <c r="M123" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K124" s="118"/>
-      <c r="L124" s="118">
+      <c r="K124" s="104"/>
+      <c r="L124" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M124" s="118">
+      <c r="M124" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K125" s="118"/>
-      <c r="L125" s="118">
+      <c r="K125" s="104"/>
+      <c r="L125" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M125" s="118">
+      <c r="M125" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K126" s="118">
+      <c r="K126" s="104">
         <v>500</v>
       </c>
-      <c r="L126" s="118">
+      <c r="L126" s="104">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="M126" s="118">
+      <c r="M126" s="104">
         <f t="shared" si="9"/>
         <v>425</v>
       </c>
     </row>
     <row r="127" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K127" s="118">
+      <c r="K127" s="104">
         <v>750</v>
       </c>
-      <c r="L127" s="118">
+      <c r="L127" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M127" s="118">
+      <c r="M127" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="128" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K128" s="118"/>
-      <c r="L128" s="118">
+      <c r="K128" s="104"/>
+      <c r="L128" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M128" s="118">
+      <c r="M128" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K129" s="118">
+      <c r="K129" s="104">
         <v>500</v>
       </c>
-      <c r="L129" s="118">
+      <c r="L129" s="104">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="M129" s="118">
+      <c r="M129" s="104">
         <f t="shared" si="9"/>
         <v>425</v>
       </c>
     </row>
     <row r="130" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K130" s="118">
+      <c r="K130" s="104">
         <v>750</v>
       </c>
-      <c r="L130" s="118">
+      <c r="L130" s="104">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
-      <c r="M130" s="118">
+      <c r="M130" s="104">
         <f t="shared" si="9"/>
         <v>637.5</v>
       </c>
     </row>
     <row r="131" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K131" s="118"/>
-      <c r="L131" s="118">
+      <c r="K131" s="104"/>
+      <c r="L131" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M131" s="118">
+      <c r="M131" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K132" s="118">
+      <c r="K132" s="104">
         <v>1000</v>
       </c>
-      <c r="L132" s="118">
+      <c r="L132" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M132" s="118">
+      <c r="M132" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
     </row>
     <row r="133" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K133" s="118">
+      <c r="K133" s="104">
         <v>1000</v>
       </c>
-      <c r="L133" s="118">
+      <c r="L133" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M133" s="118">
+      <c r="M133" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
     </row>
     <row r="134" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K134" s="118"/>
-      <c r="L134" s="118">
+      <c r="K134" s="104"/>
+      <c r="L134" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M134" s="118">
+      <c r="M134" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K135" s="118">
+      <c r="K135" s="104">
         <v>1000</v>
       </c>
-      <c r="L135" s="118">
+      <c r="L135" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M135" s="118">
+      <c r="M135" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
     </row>
     <row r="136" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K136" s="118">
+      <c r="K136" s="104">
         <v>1000</v>
       </c>
-      <c r="L136" s="118">
+      <c r="L136" s="104">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="M136" s="118">
+      <c r="M136" s="104">
         <f t="shared" si="9"/>
         <v>850</v>
       </c>
     </row>
     <row r="137" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K137" s="118"/>
-      <c r="L137" s="118">
+      <c r="K137" s="104"/>
+      <c r="L137" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M137" s="118">
+      <c r="M137" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K138" s="118"/>
-      <c r="L138" s="118">
+      <c r="K138" s="104"/>
+      <c r="L138" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M138" s="118">
+      <c r="M138" s="104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K139" s="119"/>
-      <c r="L139" s="118">
+      <c r="K139" s="105"/>
+      <c r="L139" s="104">
         <f t="shared" ref="L139:L149" si="10">K139*15%</f>
         <v>0</v>
       </c>
-      <c r="M139" s="118">
+      <c r="M139" s="104">
         <f t="shared" ref="M139:M149" si="11">K139-L139</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K140" s="118"/>
-      <c r="L140" s="118">
+      <c r="K140" s="104"/>
+      <c r="L140" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M140" s="118">
+      <c r="M140" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K141" s="118">
+      <c r="K141" s="104">
         <v>8000</v>
       </c>
-      <c r="L141" s="118">
+      <c r="L141" s="104">
         <f t="shared" si="10"/>
         <v>1200</v>
       </c>
-      <c r="M141" s="118">
+      <c r="M141" s="104">
         <f t="shared" si="11"/>
         <v>6800</v>
       </c>
     </row>
     <row r="142" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K142" s="119"/>
-      <c r="L142" s="118">
+      <c r="K142" s="105"/>
+      <c r="L142" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M142" s="118">
+      <c r="M142" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K143" s="118"/>
-      <c r="L143" s="118">
+      <c r="K143" s="104"/>
+      <c r="L143" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M143" s="118">
+      <c r="M143" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K144" s="118"/>
-      <c r="L144" s="118">
+      <c r="K144" s="104"/>
+      <c r="L144" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M144" s="118">
+      <c r="M144" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K145" s="118">
+      <c r="K145" s="104">
         <v>15000</v>
       </c>
-      <c r="L145" s="118">
+      <c r="L145" s="104">
         <f t="shared" si="10"/>
         <v>2250</v>
       </c>
-      <c r="M145" s="118">
+      <c r="M145" s="104">
         <f t="shared" si="11"/>
         <v>12750</v>
       </c>
     </row>
     <row r="146" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K146" s="118"/>
-      <c r="L146" s="118">
+      <c r="K146" s="104"/>
+      <c r="L146" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M146" s="118">
+      <c r="M146" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K147" s="118">
+      <c r="K147" s="104">
         <v>5000</v>
       </c>
-      <c r="L147" s="118">
+      <c r="L147" s="104">
         <f t="shared" si="10"/>
         <v>750</v>
       </c>
-      <c r="M147" s="118">
+      <c r="M147" s="104">
         <f t="shared" si="11"/>
         <v>4250</v>
       </c>
     </row>
     <row r="148" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K148" s="118"/>
-      <c r="L148" s="118">
+      <c r="K148" s="104"/>
+      <c r="L148" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M148" s="118">
+      <c r="M148" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K149" s="118">
+      <c r="K149" s="104">
         <v>150000</v>
       </c>
-      <c r="L149" s="118">
+      <c r="L149" s="104">
         <f t="shared" si="10"/>
         <v>22500</v>
       </c>
-      <c r="M149" s="118">
+      <c r="M149" s="104">
         <f t="shared" si="11"/>
         <v>127500</v>
       </c>
     </row>
     <row r="150" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K150" s="118"/>
-      <c r="L150" s="118"/>
-      <c r="M150" s="118"/>
+      <c r="K150" s="104"/>
+      <c r="L150" s="104"/>
+      <c r="M150" s="104"/>
     </row>
     <row r="151" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K151" s="118"/>
-      <c r="L151" s="118"/>
-      <c r="M151" s="118"/>
+      <c r="K151" s="104"/>
+      <c r="L151" s="104"/>
+      <c r="M151" s="104"/>
     </row>
     <row r="152" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K152" s="118"/>
-      <c r="L152" s="118"/>
-      <c r="M152" s="118"/>
+      <c r="K152" s="104"/>
+      <c r="L152" s="104"/>
+      <c r="M152" s="104"/>
     </row>
     <row r="153" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K153" s="118"/>
-      <c r="L153" s="118"/>
-      <c r="M153" s="118"/>
+      <c r="K153" s="104"/>
+      <c r="L153" s="104"/>
+      <c r="M153" s="104"/>
     </row>
     <row r="154" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K154" s="118"/>
-      <c r="L154" s="118"/>
-      <c r="M154" s="118"/>
+      <c r="K154" s="104"/>
+      <c r="L154" s="104"/>
+      <c r="M154" s="104"/>
     </row>
     <row r="155" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K155" s="118"/>
-      <c r="L155" s="118"/>
-      <c r="M155" s="118"/>
+      <c r="K155" s="104"/>
+      <c r="L155" s="104"/>
+      <c r="M155" s="104"/>
     </row>
     <row r="156" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K156" s="118"/>
-      <c r="L156" s="118"/>
-      <c r="M156" s="118"/>
+      <c r="K156" s="104"/>
+      <c r="L156" s="104"/>
+      <c r="M156" s="104"/>
     </row>
     <row r="157" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K157" s="118"/>
-      <c r="L157" s="118"/>
-      <c r="M157" s="118"/>
+      <c r="K157" s="104"/>
+      <c r="L157" s="104"/>
+      <c r="M157" s="104"/>
     </row>
     <row r="158" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K158" s="118"/>
-      <c r="L158" s="118"/>
-      <c r="M158" s="118"/>
+      <c r="K158" s="104"/>
+      <c r="L158" s="104"/>
+      <c r="M158" s="104"/>
     </row>
     <row r="159" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K159" s="118"/>
-      <c r="L159" s="118"/>
-      <c r="M159" s="118"/>
+      <c r="K159" s="104"/>
+      <c r="L159" s="104"/>
+      <c r="M159" s="104"/>
     </row>
     <row r="160" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K160" s="118"/>
-      <c r="L160" s="118"/>
-      <c r="M160" s="118"/>
+      <c r="K160" s="104"/>
+      <c r="L160" s="104"/>
+      <c r="M160" s="104"/>
     </row>
     <row r="161" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K161" s="118"/>
-      <c r="L161" s="118"/>
-      <c r="M161" s="118"/>
+      <c r="K161" s="104"/>
+      <c r="L161" s="104"/>
+      <c r="M161" s="104"/>
     </row>
     <row r="162" spans="11:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="K162" s="118"/>
-      <c r="L162" s="118"/>
-      <c r="M162" s="118"/>
+      <c r="K162" s="104"/>
+      <c r="L162" s="104"/>
+      <c r="M162" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11232,100 +11285,100 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
       <c r="D5" s="49"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="114" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
@@ -11338,7 +11391,7 @@
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="114"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
